--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.717738151550293</v>
+        <v>0.9123456478118896</v>
       </c>
       <c r="D2" t="n">
-        <v>20.367</v>
+        <v>17.044</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8428215980529785</v>
+        <v>0.4934020042419434</v>
       </c>
       <c r="D3" t="n">
-        <v>23.386</v>
+        <v>66.15900000000001</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8158540725708008</v>
+        <v>0.5929369926452637</v>
       </c>
       <c r="D4" t="n">
-        <v>7.308</v>
+        <v>32.984</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.009042978286743</v>
+        <v>0.6129200458526611</v>
       </c>
       <c r="D5" t="n">
         <v>7.308</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4533801078796387</v>
+        <v>0.2025918960571289</v>
       </c>
       <c r="D6" t="n">
         <v>6.017</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4344360828399658</v>
+        <v>0.1944859027862549</v>
       </c>
       <c r="D7" t="n">
         <v>6.017</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6471974849700928</v>
+        <v>0.2353639602661133</v>
       </c>
       <c r="D8" t="n">
         <v>5.353</v>
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.484309196472168</v>
+        <v>0.2401340007781982</v>
       </c>
       <c r="D9" t="n">
-        <v>5.353</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5497992038726807</v>
+        <v>0.3002710342407227</v>
       </c>
       <c r="D10" t="n">
-        <v>67.27800000000001</v>
+        <v>69.571</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6716687679290771</v>
+        <v>0.2825248241424561</v>
       </c>
       <c r="D11" t="n">
-        <v>73.413</v>
+        <v>73.881</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>9.82564377784729</v>
+        <v>1.456033945083618</v>
       </c>
       <c r="D12" t="n">
-        <v>58.934</v>
+        <v>69.503</v>
       </c>
     </row>
     <row r="13">
@@ -641,7 +641,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.324372291564941</v>
+        <v>0.6088719367980957</v>
       </c>
       <c r="D13" t="n">
         <v>73.245</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8952696323394775</v>
+        <v>0.485663890838623</v>
       </c>
       <c r="D14" t="n">
         <v>8.17</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8488075733184814</v>
+        <v>0.5502300262451172</v>
       </c>
       <c r="D15" t="n">
-        <v>15.167</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="16">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.952068567276001</v>
+        <v>0.5654866695404053</v>
       </c>
       <c r="D16" t="n">
         <v>7.326</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7942039966583252</v>
+        <v>0.6181249618530273</v>
       </c>
       <c r="D17" t="n">
-        <v>13.267</v>
+        <v>7.326</v>
       </c>
     </row>
     <row r="18">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3939778804779053</v>
+        <v>0.2139163017272949</v>
       </c>
       <c r="D18" t="n">
         <v>6.215</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4922804832458496</v>
+        <v>0.2209579944610596</v>
       </c>
       <c r="D19" t="n">
         <v>6.215</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5336289405822754</v>
+        <v>0.2463538646697998</v>
       </c>
       <c r="D20" t="n">
         <v>5.371</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5258677005767822</v>
+        <v>0.2633438110351562</v>
       </c>
       <c r="D21" t="n">
         <v>5.371</v>
@@ -785,7 +785,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6425819396972656</v>
+        <v>0.2959749698638916</v>
       </c>
       <c r="D22" t="n">
         <v>64.398</v>
@@ -801,7 +801,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6062445640563965</v>
+        <v>0.3065907955169678</v>
       </c>
       <c r="D23" t="n">
         <v>522.806</v>
@@ -817,7 +817,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.080754995346069</v>
+        <v>0.6373012065887451</v>
       </c>
       <c r="D24" t="n">
         <v>58.093</v>
@@ -833,7 +833,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.25210976600647</v>
+        <v>0.7557830810546875</v>
       </c>
       <c r="D25" t="n">
         <v>522.668</v>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9123456478118896</v>
+        <v>0.8148894309997559</v>
       </c>
       <c r="D2" t="n">
-        <v>17.044</v>
+        <v>121.539</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4934020042419434</v>
+        <v>0.8994669914245605</v>
       </c>
       <c r="D3" t="n">
-        <v>66.15900000000001</v>
+        <v>123.114</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5929369926452637</v>
+        <v>1.031698942184448</v>
       </c>
       <c r="D4" t="n">
-        <v>32.984</v>
+        <v>178.504</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6129200458526611</v>
+        <v>1.143570184707642</v>
       </c>
       <c r="D5" t="n">
-        <v>7.308</v>
+        <v>178.504</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2025918960571289</v>
+        <v>0.7020449638366699</v>
       </c>
       <c r="D6" t="n">
-        <v>6.017</v>
+        <v>119.584</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1944859027862549</v>
+        <v>0.7322349548339844</v>
       </c>
       <c r="D7" t="n">
-        <v>6.017</v>
+        <v>119.584</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2353639602661133</v>
+        <v>0.6683261394500732</v>
       </c>
       <c r="D8" t="n">
-        <v>5.353</v>
+        <v>118.92</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2401340007781982</v>
+        <v>0.6654210090637207</v>
       </c>
       <c r="D9" t="n">
-        <v>8.99</v>
+        <v>118.92</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3002710342407227</v>
+        <v>0.7203829288482666</v>
       </c>
       <c r="D10" t="n">
-        <v>69.571</v>
+        <v>180.845</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2825248241424561</v>
+        <v>0.6909468173980713</v>
       </c>
       <c r="D11" t="n">
-        <v>73.881</v>
+        <v>186.98</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.456033945083618</v>
+        <v>1.84622597694397</v>
       </c>
       <c r="D12" t="n">
-        <v>69.503</v>
+        <v>229.502</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6088719367980957</v>
+        <v>1.840805768966675</v>
       </c>
       <c r="D13" t="n">
-        <v>73.245</v>
+        <v>255.766</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C14" t="n">
-        <v>0.485663890838623</v>
+        <v>0.8253061771392822</v>
       </c>
       <c r="D14" t="n">
-        <v>8.17</v>
+        <v>121.737</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5502300262451172</v>
+        <v>0.811244010925293</v>
       </c>
       <c r="D15" t="n">
-        <v>8.17</v>
+        <v>121.737</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5654866695404053</v>
+        <v>0.9884240627288818</v>
       </c>
       <c r="D16" t="n">
-        <v>7.326</v>
+        <v>122.468</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6181249618530273</v>
+        <v>1.004884958267212</v>
       </c>
       <c r="D17" t="n">
-        <v>7.326</v>
+        <v>120.893</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2139163017272949</v>
+        <v>0.7249929904937744</v>
       </c>
       <c r="D18" t="n">
-        <v>6.215</v>
+        <v>121.357</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2209579944610596</v>
+        <v>0.6985659599304199</v>
       </c>
       <c r="D19" t="n">
-        <v>6.215</v>
+        <v>119.782</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2463538646697998</v>
+        <v>0.6690890789031982</v>
       </c>
       <c r="D20" t="n">
-        <v>5.371</v>
+        <v>118.938</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2633438110351562</v>
+        <v>0.6459109783172607</v>
       </c>
       <c r="D21" t="n">
-        <v>5.371</v>
+        <v>113.59</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2959749698638916</v>
+        <v>0.6943621635437012</v>
       </c>
       <c r="D22" t="n">
-        <v>64.398</v>
+        <v>177.965</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3065907955169678</v>
+        <v>0.7060956954956055</v>
       </c>
       <c r="D23" t="n">
-        <v>522.806</v>
+        <v>636.373</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6373012065887451</v>
+        <v>1.802934885025024</v>
       </c>
       <c r="D24" t="n">
-        <v>58.093</v>
+        <v>231.422</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7557830810546875</v>
+        <v>1.94797682762146</v>
       </c>
       <c r="D25" t="n">
-        <v>522.668</v>
+        <v>695.997</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8148894309997559</v>
+        <v>2.387016296386719</v>
       </c>
       <c r="D2" t="n">
-        <v>121.539</v>
+        <v>545.506</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8994669914245605</v>
+        <v>2.377332925796509</v>
       </c>
       <c r="D3" t="n">
-        <v>123.114</v>
+        <v>545.506</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.031698942184448</v>
+        <v>2.507958173751831</v>
       </c>
       <c r="D4" t="n">
-        <v>178.504</v>
+        <v>544.842</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.143570184707642</v>
+        <v>2.511003255844116</v>
       </c>
       <c r="D5" t="n">
-        <v>178.504</v>
+        <v>544.842</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7020449638366699</v>
+        <v>0.6984832286834717</v>
       </c>
       <c r="D6" t="n">
         <v>119.584</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7322349548339844</v>
+        <v>0.7367579936981201</v>
       </c>
       <c r="D7" t="n">
         <v>119.584</v>
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6683261394500732</v>
+        <v>0.6852579116821289</v>
       </c>
       <c r="D8" t="n">
-        <v>118.92</v>
+        <v>113.572</v>
       </c>
     </row>
     <row r="9">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6654210090637207</v>
+        <v>0.6458699703216553</v>
       </c>
       <c r="D9" t="n">
         <v>118.92</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7203829288482666</v>
+        <v>1.475396156311035</v>
       </c>
       <c r="D10" t="n">
-        <v>180.845</v>
+        <v>273.407</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6909468173980713</v>
+        <v>1.462772130966187</v>
       </c>
       <c r="D11" t="n">
-        <v>186.98</v>
+        <v>279.431</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.84622597694397</v>
+        <v>2.414889812469482</v>
       </c>
       <c r="D12" t="n">
-        <v>229.502</v>
+        <v>285.023</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.840805768966675</v>
+        <v>2.103254556655884</v>
       </c>
       <c r="D13" t="n">
-        <v>255.766</v>
+        <v>291.678</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8253061771392822</v>
+        <v>2.367144107818604</v>
       </c>
       <c r="D14" t="n">
-        <v>121.737</v>
+        <v>545.704</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C15" t="n">
-        <v>0.811244010925293</v>
+        <v>2.363018989562988</v>
       </c>
       <c r="D15" t="n">
-        <v>121.737</v>
+        <v>545.704</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9884240627288818</v>
+        <v>2.483609914779663</v>
       </c>
       <c r="D16" t="n">
-        <v>122.468</v>
+        <v>544.86</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.004884958267212</v>
+        <v>2.509706974029541</v>
       </c>
       <c r="D17" t="n">
-        <v>120.893</v>
+        <v>544.86</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7249929904937744</v>
+        <v>0.7028958797454834</v>
       </c>
       <c r="D18" t="n">
-        <v>121.357</v>
+        <v>119.782</v>
       </c>
     </row>
     <row r="19">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6985659599304199</v>
+        <v>0.7227721214294434</v>
       </c>
       <c r="D19" t="n">
         <v>119.782</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6690890789031982</v>
+        <v>0.6694531440734863</v>
       </c>
       <c r="D20" t="n">
         <v>118.938</v>
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6459109783172607</v>
+        <v>0.7438149452209473</v>
       </c>
       <c r="D21" t="n">
-        <v>113.59</v>
+        <v>118.938</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6943621635437012</v>
+        <v>1.469676733016968</v>
       </c>
       <c r="D22" t="n">
-        <v>177.965</v>
+        <v>271.471</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7060956954956055</v>
+        <v>1.437718152999878</v>
       </c>
       <c r="D23" t="n">
-        <v>636.373</v>
+        <v>1302.302</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.802934885025024</v>
+        <v>2.367526054382324</v>
       </c>
       <c r="D24" t="n">
-        <v>231.422</v>
+        <v>275.096</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.94797682762146</v>
+        <v>2.49179220199585</v>
       </c>
       <c r="D25" t="n">
-        <v>695.997</v>
+        <v>1329.993</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8148894309997559</v>
+        <v>2.312647104263306</v>
       </c>
       <c r="D2" t="n">
-        <v>121.539</v>
+        <v>545.506</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8994669914245605</v>
+        <v>2.434854984283447</v>
       </c>
       <c r="D3" t="n">
-        <v>123.114</v>
+        <v>545.506</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.031698942184448</v>
+        <v>2.499150037765503</v>
       </c>
       <c r="D4" t="n">
-        <v>178.504</v>
+        <v>544.842</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.143570184707642</v>
+        <v>2.596668243408203</v>
       </c>
       <c r="D5" t="n">
-        <v>178.504</v>
+        <v>544.842</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7020449638366699</v>
+        <v>0.680354118347168</v>
       </c>
       <c r="D6" t="n">
         <v>119.584</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7322349548339844</v>
+        <v>0.4447050094604492</v>
       </c>
       <c r="D7" t="n">
-        <v>119.584</v>
+        <v>31.551</v>
       </c>
     </row>
     <row r="8">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6683261394500732</v>
+        <v>0.6635210514068604</v>
       </c>
       <c r="D8" t="n">
         <v>118.92</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6654210090637207</v>
+        <v>0.7479233741760254</v>
       </c>
       <c r="D9" t="n">
         <v>118.92</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7203829288482666</v>
+        <v>1.398643016815186</v>
       </c>
       <c r="D10" t="n">
-        <v>180.845</v>
+        <v>242.089</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6909468173980713</v>
+        <v>1.461095094680786</v>
       </c>
       <c r="D11" t="n">
-        <v>186.98</v>
+        <v>246.059</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.84622597694397</v>
+        <v>2.670613050460815</v>
       </c>
       <c r="D12" t="n">
-        <v>229.502</v>
+        <v>256.628</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.840805768966675</v>
+        <v>2.543349027633667</v>
       </c>
       <c r="D13" t="n">
-        <v>255.766</v>
+        <v>273.7</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8253061771392822</v>
+        <v>2.290057182312012</v>
       </c>
       <c r="D14" t="n">
-        <v>121.737</v>
+        <v>545.704</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C15" t="n">
-        <v>0.811244010925293</v>
+        <v>2.402360916137695</v>
       </c>
       <c r="D15" t="n">
-        <v>121.737</v>
+        <v>545.704</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9884240627288818</v>
+        <v>2.556940078735352</v>
       </c>
       <c r="D16" t="n">
-        <v>122.468</v>
+        <v>544.86</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.004884958267212</v>
+        <v>2.683403015136719</v>
       </c>
       <c r="D17" t="n">
-        <v>120.893</v>
+        <v>544.86</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7249929904937744</v>
+        <v>0.6827030181884766</v>
       </c>
       <c r="D18" t="n">
-        <v>121.357</v>
+        <v>119.782</v>
       </c>
     </row>
     <row r="19">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6985659599304199</v>
+        <v>0.692263126373291</v>
       </c>
       <c r="D19" t="n">
         <v>119.782</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6690890789031982</v>
+        <v>0.6558370590209961</v>
       </c>
       <c r="D20" t="n">
         <v>118.938</v>
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6459109783172607</v>
+        <v>0.6293540000915527</v>
       </c>
       <c r="D21" t="n">
-        <v>113.59</v>
+        <v>118.938</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6943621635437012</v>
+        <v>1.541366100311279</v>
       </c>
       <c r="D22" t="n">
-        <v>177.965</v>
+        <v>239.209</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7060956954956055</v>
+        <v>1.567179203033447</v>
       </c>
       <c r="D23" t="n">
-        <v>636.373</v>
+        <v>695.452</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.802934885025024</v>
+        <v>2.916055917739868</v>
       </c>
       <c r="D24" t="n">
-        <v>231.422</v>
+        <v>258.548</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.94797682762146</v>
+        <v>2.844291925430298</v>
       </c>
       <c r="D25" t="n">
-        <v>695.997</v>
+        <v>723.123</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8148894309997559</v>
+        <v>0.8019928932189941</v>
       </c>
       <c r="D2" t="n">
-        <v>121.539</v>
+        <v>123.036</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8994669914245605</v>
+        <v>0.7952790260314941</v>
       </c>
       <c r="D3" t="n">
-        <v>123.114</v>
+        <v>121.539</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.031698942184448</v>
+        <v>1.016146898269653</v>
       </c>
       <c r="D4" t="n">
-        <v>178.504</v>
+        <v>122.372</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.143570184707642</v>
+        <v>0.9914631843566895</v>
       </c>
       <c r="D5" t="n">
-        <v>178.504</v>
+        <v>122.372</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7020449638366699</v>
+        <v>0.6960461139678955</v>
       </c>
       <c r="D6" t="n">
         <v>119.584</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7322349548339844</v>
+        <v>0.7251889705657959</v>
       </c>
       <c r="D7" t="n">
         <v>119.584</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6683261394500732</v>
+        <v>0.6337332725524902</v>
       </c>
       <c r="D8" t="n">
         <v>118.92</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6654210090637207</v>
+        <v>0.6513500213623047</v>
       </c>
       <c r="D9" t="n">
         <v>118.92</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7203829288482666</v>
+        <v>0.8195037841796875</v>
       </c>
       <c r="D10" t="n">
-        <v>180.845</v>
+        <v>180.436</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6909468173980713</v>
+        <v>0.8011209964752197</v>
       </c>
       <c r="D11" t="n">
-        <v>186.98</v>
+        <v>199.297</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.84622597694397</v>
+        <v>1.340407133102417</v>
       </c>
       <c r="D12" t="n">
-        <v>229.502</v>
+        <v>225.966</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.840805768966675</v>
+        <v>1.408698081970215</v>
       </c>
       <c r="D13" t="n">
-        <v>255.766</v>
+        <v>200.835</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8253061771392822</v>
+        <v>0.7830588817596436</v>
       </c>
       <c r="D14" t="n">
-        <v>121.737</v>
+        <v>123.234</v>
       </c>
     </row>
     <row r="15">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.811244010925293</v>
+        <v>0.7784278392791748</v>
       </c>
       <c r="D15" t="n">
         <v>121.737</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9884240627288818</v>
+        <v>1.009188890457153</v>
       </c>
       <c r="D16" t="n">
-        <v>122.468</v>
+        <v>122.39</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.004884958267212</v>
+        <v>0.9993617534637451</v>
       </c>
       <c r="D17" t="n">
-        <v>120.893</v>
+        <v>122.39</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7249929904937744</v>
+        <v>0.6924300193786621</v>
       </c>
       <c r="D18" t="n">
-        <v>121.357</v>
+        <v>119.782</v>
       </c>
     </row>
     <row r="19">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6985659599304199</v>
+        <v>0.6932468414306641</v>
       </c>
       <c r="D19" t="n">
         <v>119.782</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6690890789031982</v>
+        <v>0.6365840435028076</v>
       </c>
       <c r="D20" t="n">
         <v>118.938</v>
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6459109783172607</v>
+        <v>0.8761301040649414</v>
       </c>
       <c r="D21" t="n">
-        <v>113.59</v>
+        <v>118.938</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6943621635437012</v>
+        <v>0.6911289691925049</v>
       </c>
       <c r="D22" t="n">
-        <v>177.965</v>
+        <v>176.186</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7060956954956055</v>
+        <v>0.719135046005249</v>
       </c>
       <c r="D23" t="n">
-        <v>636.373</v>
+        <v>584.758</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.802934885025024</v>
+        <v>1.266645193099976</v>
       </c>
       <c r="D24" t="n">
-        <v>231.422</v>
+        <v>227.78</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.94797682762146</v>
+        <v>1.551820039749146</v>
       </c>
       <c r="D25" t="n">
-        <v>695.997</v>
+        <v>642.223</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C2" t="n">
-        <v>2.312647104263306</v>
+        <v>2.428809881210327</v>
       </c>
       <c r="D2" t="n">
         <v>545.506</v>
@@ -481,7 +481,7 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C3" t="n">
-        <v>2.434854984283447</v>
+        <v>2.37378716468811</v>
       </c>
       <c r="D3" t="n">
         <v>545.506</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.499150037765503</v>
+        <v>2.496087789535522</v>
       </c>
       <c r="D4" t="n">
         <v>544.842</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.596668243408203</v>
+        <v>2.511951684951782</v>
       </c>
       <c r="D5" t="n">
         <v>544.842</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.680354118347168</v>
+        <v>0.7080490589141846</v>
       </c>
       <c r="D6" t="n">
         <v>119.584</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4447050094604492</v>
+        <v>0.7043869495391846</v>
       </c>
       <c r="D7" t="n">
-        <v>31.551</v>
+        <v>119.584</v>
       </c>
     </row>
     <row r="8">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6635210514068604</v>
+        <v>0.6475489139556885</v>
       </c>
       <c r="D8" t="n">
         <v>118.92</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7479233741760254</v>
+        <v>0.7007520198822021</v>
       </c>
       <c r="D9" t="n">
         <v>118.92</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.398643016815186</v>
+        <v>1.47664999961853</v>
       </c>
       <c r="D10" t="n">
-        <v>242.089</v>
+        <v>238.018</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.461095094680786</v>
+        <v>1.41044807434082</v>
       </c>
       <c r="D11" t="n">
-        <v>246.059</v>
+        <v>258.376</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.670613050460815</v>
+        <v>5.089534997940063</v>
       </c>
       <c r="D12" t="n">
-        <v>256.628</v>
+        <v>2077.736</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.543349027633667</v>
+        <v>2.154598951339722</v>
       </c>
       <c r="D13" t="n">
-        <v>273.7</v>
+        <v>270.812</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.290057182312012</v>
+        <v>2.297042846679688</v>
       </c>
       <c r="D14" t="n">
         <v>545.704</v>
@@ -673,10 +673,10 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C15" t="n">
-        <v>2.402360916137695</v>
+        <v>2.362437963485718</v>
       </c>
       <c r="D15" t="n">
-        <v>545.704</v>
+        <v>182.981</v>
       </c>
     </row>
     <row r="16">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.556940078735352</v>
+        <v>2.639878273010254</v>
       </c>
       <c r="D16" t="n">
         <v>544.86</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.683403015136719</v>
+        <v>2.565930843353271</v>
       </c>
       <c r="D17" t="n">
         <v>544.86</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6827030181884766</v>
+        <v>0.7447929382324219</v>
       </c>
       <c r="D18" t="n">
         <v>119.782</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.692263126373291</v>
+        <v>0.6824731826782227</v>
       </c>
       <c r="D19" t="n">
         <v>119.782</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6558370590209961</v>
+        <v>0.7435908317565918</v>
       </c>
       <c r="D20" t="n">
-        <v>118.938</v>
+        <v>119.044</v>
       </c>
     </row>
     <row r="21">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6293540000915527</v>
+        <v>0.7344651222229004</v>
       </c>
       <c r="D21" t="n">
         <v>118.938</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.541366100311279</v>
+        <v>1.549209833145142</v>
       </c>
       <c r="D22" t="n">
-        <v>239.209</v>
+        <v>235.265</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.567179203033447</v>
+        <v>1.576204776763916</v>
       </c>
       <c r="D23" t="n">
-        <v>695.452</v>
+        <v>646.002</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.916055917739868</v>
+        <v>2.303790092468262</v>
       </c>
       <c r="D24" t="n">
-        <v>258.548</v>
+        <v>257.085</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.844291925430298</v>
+        <v>2.465884923934937</v>
       </c>
       <c r="D25" t="n">
-        <v>723.123</v>
+        <v>671.528</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -465,7 +465,7 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C2" t="n">
-        <v>2.387016296386719</v>
+        <v>2.371938228607178</v>
       </c>
       <c r="D2" t="n">
         <v>545.506</v>
@@ -481,7 +481,7 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C3" t="n">
-        <v>2.377332925796509</v>
+        <v>2.353026151657104</v>
       </c>
       <c r="D3" t="n">
         <v>545.506</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.507958173751831</v>
+        <v>2.519361972808838</v>
       </c>
       <c r="D4" t="n">
         <v>544.842</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.511003255844116</v>
+        <v>2.576639890670776</v>
       </c>
       <c r="D5" t="n">
         <v>544.842</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6984832286834717</v>
+        <v>0.7031741142272949</v>
       </c>
       <c r="D6" t="n">
         <v>119.584</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7367579936981201</v>
+        <v>0.6779780387878418</v>
       </c>
       <c r="D7" t="n">
         <v>119.584</v>
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6852579116821289</v>
+        <v>0.6922900676727295</v>
       </c>
       <c r="D8" t="n">
-        <v>113.572</v>
+        <v>118.92</v>
       </c>
     </row>
     <row r="9">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6458699703216553</v>
+        <v>0.8216969966888428</v>
       </c>
       <c r="D9" t="n">
         <v>118.92</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.475396156311035</v>
+        <v>1.450206995010376</v>
       </c>
       <c r="D10" t="n">
-        <v>273.407</v>
+        <v>269.027</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.462772130966187</v>
+        <v>1.419539928436279</v>
       </c>
       <c r="D11" t="n">
-        <v>279.431</v>
+        <v>306.763</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.414889812469482</v>
+        <v>2.194422006607056</v>
       </c>
       <c r="D12" t="n">
-        <v>285.023</v>
+        <v>266.741</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.103254556655884</v>
+        <v>2.286364078521729</v>
       </c>
       <c r="D13" t="n">
-        <v>291.678</v>
+        <v>319.199</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C14" t="n">
-        <v>2.367144107818604</v>
+        <v>2.316632032394409</v>
       </c>
       <c r="D14" t="n">
         <v>545.704</v>
@@ -673,7 +673,7 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C15" t="n">
-        <v>2.363018989562988</v>
+        <v>2.486576080322266</v>
       </c>
       <c r="D15" t="n">
         <v>545.704</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.483609914779663</v>
+        <v>2.520114898681641</v>
       </c>
       <c r="D16" t="n">
         <v>544.86</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.509706974029541</v>
+        <v>2.540316820144653</v>
       </c>
       <c r="D17" t="n">
         <v>544.86</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7028958797454834</v>
+        <v>0.688413143157959</v>
       </c>
       <c r="D18" t="n">
         <v>119.782</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7227721214294434</v>
+        <v>0.7378060817718506</v>
       </c>
       <c r="D19" t="n">
         <v>119.782</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6694531440734863</v>
+        <v>0.6612768173217773</v>
       </c>
       <c r="D20" t="n">
         <v>118.938</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7438149452209473</v>
+        <v>0.657167911529541</v>
       </c>
       <c r="D21" t="n">
         <v>118.938</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.469676733016968</v>
+        <v>1.515900850296021</v>
       </c>
       <c r="D22" t="n">
-        <v>271.471</v>
+        <v>279.901</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.437718152999878</v>
+        <v>1.43884015083313</v>
       </c>
       <c r="D23" t="n">
-        <v>1302.302</v>
+        <v>1087.624</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.367526054382324</v>
+        <v>2.201502799987793</v>
       </c>
       <c r="D24" t="n">
-        <v>275.096</v>
+        <v>267.614</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.49179220199585</v>
+        <v>2.291365146636963</v>
       </c>
       <c r="D25" t="n">
-        <v>1329.993</v>
+        <v>765.765</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8148894309997559</v>
+        <v>0.7821998596191406</v>
       </c>
       <c r="D2" t="n">
         <v>121.539</v>
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8994669914245605</v>
+        <v>0.7950809001922607</v>
       </c>
       <c r="D3" t="n">
-        <v>123.114</v>
+        <v>121.539</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.031698942184448</v>
+        <v>1.131721019744873</v>
       </c>
       <c r="D4" t="n">
-        <v>178.504</v>
+        <v>178.458</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.143570184707642</v>
+        <v>1.011283874511719</v>
       </c>
       <c r="D5" t="n">
-        <v>178.504</v>
+        <v>122.372</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7020449638366699</v>
+        <v>0.6906120777130127</v>
       </c>
       <c r="D6" t="n">
         <v>119.584</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7322349548339844</v>
+        <v>0.6778519153594971</v>
       </c>
       <c r="D7" t="n">
         <v>119.584</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6683261394500732</v>
+        <v>0.668889045715332</v>
       </c>
       <c r="D8" t="n">
         <v>118.92</v>
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6654210090637207</v>
+        <v>0.7086730003356934</v>
       </c>
       <c r="D9" t="n">
-        <v>118.92</v>
+        <v>113.572</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7203829288482666</v>
+        <v>0.7184090614318848</v>
       </c>
       <c r="D10" t="n">
-        <v>180.845</v>
+        <v>178.939</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6909468173980713</v>
+        <v>0.6707541942596436</v>
       </c>
       <c r="D11" t="n">
-        <v>186.98</v>
+        <v>199.297</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.84622597694397</v>
+        <v>1.349465131759644</v>
       </c>
       <c r="D12" t="n">
-        <v>229.502</v>
+        <v>252.85</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.840805768966675</v>
+        <v>1.409409046173096</v>
       </c>
       <c r="D13" t="n">
-        <v>255.766</v>
+        <v>305.308</v>
       </c>
     </row>
     <row r="14">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8253061771392822</v>
+        <v>0.8043599128723145</v>
       </c>
       <c r="D14" t="n">
         <v>121.737</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.811244010925293</v>
+        <v>0.814424991607666</v>
       </c>
       <c r="D15" t="n">
         <v>121.737</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9884240627288818</v>
+        <v>1.007726192474365</v>
       </c>
       <c r="D16" t="n">
-        <v>122.468</v>
+        <v>122.39</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.004884958267212</v>
+        <v>0.9946780204772949</v>
       </c>
       <c r="D17" t="n">
-        <v>120.893</v>
+        <v>122.39</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7249929904937744</v>
+        <v>0.7554402351379395</v>
       </c>
       <c r="D18" t="n">
-        <v>121.357</v>
+        <v>119.782</v>
       </c>
     </row>
     <row r="19">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6985659599304199</v>
+        <v>0.7170720100402832</v>
       </c>
       <c r="D19" t="n">
         <v>119.782</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6690890789031982</v>
+        <v>0.7510418891906738</v>
       </c>
       <c r="D20" t="n">
         <v>118.938</v>
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6459109783172607</v>
+        <v>0.6492600440979004</v>
       </c>
       <c r="D21" t="n">
-        <v>113.59</v>
+        <v>118.938</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6943621635437012</v>
+        <v>0.8032000064849854</v>
       </c>
       <c r="D22" t="n">
-        <v>177.965</v>
+        <v>176.153</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7060956954956055</v>
+        <v>0.7264149188995361</v>
       </c>
       <c r="D23" t="n">
-        <v>636.373</v>
+        <v>601.836</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.802934885025024</v>
+        <v>1.337460994720459</v>
       </c>
       <c r="D24" t="n">
-        <v>231.422</v>
+        <v>227.805</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.94797682762146</v>
+        <v>1.506648063659668</v>
       </c>
       <c r="D25" t="n">
-        <v>695.997</v>
+        <v>803.117</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8148894309997559</v>
+        <v>0.8332610130310059</v>
       </c>
       <c r="D2" t="n">
-        <v>121.539</v>
+        <v>123.036</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8994669914245605</v>
+        <v>0.901735782623291</v>
       </c>
       <c r="D3" t="n">
-        <v>123.114</v>
+        <v>123.036</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.031698942184448</v>
+        <v>1.010292053222656</v>
       </c>
       <c r="D4" t="n">
-        <v>178.504</v>
+        <v>122.372</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.143570184707642</v>
+        <v>0.9890859127044678</v>
       </c>
       <c r="D5" t="n">
-        <v>178.504</v>
+        <v>122.372</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7020449638366699</v>
+        <v>0.6984901428222656</v>
       </c>
       <c r="D6" t="n">
         <v>119.584</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7322349548339844</v>
+        <v>0.7014238834381104</v>
       </c>
       <c r="D7" t="n">
         <v>119.584</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6683261394500732</v>
+        <v>0.6702330112457275</v>
       </c>
       <c r="D8" t="n">
         <v>118.92</v>
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6654210090637207</v>
+        <v>0.7551290988922119</v>
       </c>
       <c r="D9" t="n">
-        <v>118.92</v>
+        <v>120.417</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7203829288482666</v>
+        <v>0.6916558742523193</v>
       </c>
       <c r="D10" t="n">
-        <v>180.845</v>
+        <v>207.783</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6909468173980713</v>
+        <v>0.690554141998291</v>
       </c>
       <c r="D11" t="n">
-        <v>186.98</v>
+        <v>247.684</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.84622597694397</v>
+        <v>1.309067964553833</v>
       </c>
       <c r="D12" t="n">
-        <v>229.502</v>
+        <v>252.85</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.840805768966675</v>
+        <v>1.339741945266724</v>
       </c>
       <c r="D13" t="n">
-        <v>255.766</v>
+        <v>305.308</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8253061771392822</v>
+        <v>0.9106650352478027</v>
       </c>
       <c r="D14" t="n">
-        <v>121.737</v>
+        <v>123.234</v>
       </c>
     </row>
     <row r="15">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.811244010925293</v>
+        <v>0.9130747318267822</v>
       </c>
       <c r="D15" t="n">
         <v>121.737</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9884240627288818</v>
+        <v>1.175053119659424</v>
       </c>
       <c r="D16" t="n">
-        <v>122.468</v>
+        <v>178.476</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.004884958267212</v>
+        <v>0.9891719818115234</v>
       </c>
       <c r="D17" t="n">
-        <v>120.893</v>
+        <v>122.39</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7249929904937744</v>
+        <v>0.6784379482269287</v>
       </c>
       <c r="D18" t="n">
-        <v>121.357</v>
+        <v>119.782</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6985659599304199</v>
+        <v>0.7975568771362305</v>
       </c>
       <c r="D19" t="n">
-        <v>119.782</v>
+        <v>121.279</v>
       </c>
     </row>
     <row r="20">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6690890789031982</v>
+        <v>0.7531802654266357</v>
       </c>
       <c r="D20" t="n">
         <v>118.938</v>
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6459109783172607</v>
+        <v>0.761915922164917</v>
       </c>
       <c r="D21" t="n">
-        <v>113.59</v>
+        <v>118.938</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6943621635437012</v>
+        <v>0.7104058265686035</v>
       </c>
       <c r="D22" t="n">
-        <v>177.965</v>
+        <v>208.517</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7060956954956055</v>
+        <v>0.7172658443450928</v>
       </c>
       <c r="D23" t="n">
-        <v>636.373</v>
+        <v>954.747</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.802934885025024</v>
+        <v>1.44765305519104</v>
       </c>
       <c r="D24" t="n">
-        <v>231.422</v>
+        <v>258.688</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.94797682762146</v>
+        <v>1.586519002914429</v>
       </c>
       <c r="D25" t="n">
-        <v>695.997</v>
+        <v>1014.377</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,13 +471,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8019928932189941</v>
+        <v>0.791205883026123</v>
       </c>
       <c r="D2" t="n">
-        <v>123.036</v>
+        <v>125.136</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7952790260314941</v>
+        <v>0.7960929870605469</v>
       </c>
       <c r="D3" t="n">
-        <v>121.539</v>
+        <v>125.136</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.016146898269653</v>
+        <v>0.9934720993041992</v>
       </c>
       <c r="D4" t="n">
-        <v>122.372</v>
+        <v>124.472</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9914631843566895</v>
+        <v>1.026705026626587</v>
       </c>
       <c r="D5" t="n">
-        <v>122.372</v>
+        <v>124.472</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6960461139678955</v>
+        <v>0.6730809211730957</v>
       </c>
       <c r="D6" t="n">
-        <v>119.584</v>
+        <v>121.684</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7251889705657959</v>
+        <v>0.6453080177307129</v>
       </c>
       <c r="D7" t="n">
-        <v>119.584</v>
+        <v>121.684</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6337332725524902</v>
+        <v>0.6635348796844482</v>
       </c>
       <c r="D8" t="n">
-        <v>118.92</v>
+        <v>121.02</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6513500213623047</v>
+        <v>0.6513350009918213</v>
       </c>
       <c r="D9" t="n">
-        <v>118.92</v>
+        <v>121.02</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8195037841796875</v>
+        <v>0.6902880668640137</v>
       </c>
       <c r="D10" t="n">
-        <v>180.436</v>
+        <v>209.883</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8011209964752197</v>
+        <v>0.7254438400268555</v>
       </c>
       <c r="D11" t="n">
-        <v>199.297</v>
+        <v>249.784</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.340407133102417</v>
+        <v>1.310860157012939</v>
       </c>
       <c r="D12" t="n">
-        <v>225.966</v>
+        <v>198.864</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.408698081970215</v>
+        <v>1.340090036392212</v>
       </c>
       <c r="D13" t="n">
-        <v>200.835</v>
+        <v>307.514</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7830588817596436</v>
+        <v>0.7914187908172607</v>
       </c>
       <c r="D14" t="n">
-        <v>123.234</v>
+        <v>123.837</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7784278392791748</v>
+        <v>0.7938559055328369</v>
       </c>
       <c r="D15" t="n">
-        <v>121.737</v>
+        <v>125.334</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.009188890457153</v>
+        <v>1.13785719871521</v>
       </c>
       <c r="D16" t="n">
-        <v>122.39</v>
+        <v>180.576</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9993617534637451</v>
+        <v>0.9553782939910889</v>
       </c>
       <c r="D17" t="n">
-        <v>122.39</v>
+        <v>124.49</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6924300193786621</v>
+        <v>0.6687891483306885</v>
       </c>
       <c r="D18" t="n">
-        <v>119.782</v>
+        <v>121.882</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6932468414306641</v>
+        <v>0.781364917755127</v>
       </c>
       <c r="D19" t="n">
-        <v>119.782</v>
+        <v>121.882</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6365840435028076</v>
+        <v>0.6332187652587891</v>
       </c>
       <c r="D20" t="n">
-        <v>118.938</v>
+        <v>121.038</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8761301040649414</v>
+        <v>0.6860198974609375</v>
       </c>
       <c r="D21" t="n">
-        <v>118.938</v>
+        <v>121.038</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6911289691925049</v>
+        <v>0.709871768951416</v>
       </c>
       <c r="D22" t="n">
-        <v>176.186</v>
+        <v>210.617</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.719135046005249</v>
+        <v>0.6780769824981689</v>
       </c>
       <c r="D23" t="n">
-        <v>584.758</v>
+        <v>1094.346</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.266645193099976</v>
+        <v>1.284092903137207</v>
       </c>
       <c r="D24" t="n">
-        <v>227.78</v>
+        <v>260.788</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.551820039749146</v>
+        <v>1.402217864990234</v>
       </c>
       <c r="D25" t="n">
-        <v>642.223</v>
+        <v>1014.312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7754368782043457</v>
+      </c>
+      <c r="D2" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8081321716308594</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9782400131225586</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9867351055145264</v>
+      </c>
+      <c r="D5" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6816291809082031</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.665313720703125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6120917797088623</v>
+      </c>
+      <c r="D8" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6374270915985107</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7710320949554443</v>
+      </c>
+      <c r="D10" t="n">
+        <v>209.883</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6412868499755859</v>
+      </c>
+      <c r="D11" t="n">
+        <v>249.784</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.329591035842896</v>
+      </c>
+      <c r="D12" t="n">
+        <v>254.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.367624998092651</v>
+      </c>
+      <c r="D13" t="n">
+        <v>307.408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7704229354858398</v>
+      </c>
+      <c r="D14" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.830111026763916</v>
+      </c>
+      <c r="D15" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9927117824554443</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9840450286865234</v>
+      </c>
+      <c r="D17" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6754019260406494</v>
+      </c>
+      <c r="D18" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6546630859375</v>
+      </c>
+      <c r="D19" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6013650894165039</v>
+      </c>
+      <c r="D20" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6509780883789062</v>
+      </c>
+      <c r="D21" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6772310733795166</v>
+      </c>
+      <c r="D22" t="n">
+        <v>210.617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6787619590759277</v>
+      </c>
+      <c r="D23" t="n">
+        <v>956.847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.466208934783936</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260.788</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.442739963531494</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1014.312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8547811508178711</v>
+      </c>
+      <c r="D2" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8252580165863037</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9811758995056152</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9940249919891357</v>
+      </c>
+      <c r="D5" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6671352386474609</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6734049320220947</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6395950317382812</v>
+      </c>
+      <c r="D8" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8011369705200195</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6718237400054932</v>
+      </c>
+      <c r="D10" t="n">
+        <v>209.883</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6958549022674561</v>
+      </c>
+      <c r="D11" t="n">
+        <v>249.784</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.235836029052734</v>
+      </c>
+      <c r="D12" t="n">
+        <v>254.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.398936033248901</v>
+      </c>
+      <c r="D13" t="n">
+        <v>307.408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7821481227874756</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9549412727355957</v>
+      </c>
+      <c r="D15" t="n">
+        <v>125.334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.017271757125854</v>
+      </c>
+      <c r="D16" t="n">
+        <v>180.576</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9524781703948975</v>
+      </c>
+      <c r="D17" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6599259376525879</v>
+      </c>
+      <c r="D18" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.700139045715332</v>
+      </c>
+      <c r="D19" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8173980712890625</v>
+      </c>
+      <c r="D20" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6655139923095703</v>
+      </c>
+      <c r="D21" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6722538471221924</v>
+      </c>
+      <c r="D22" t="n">
+        <v>210.617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.678062915802002</v>
+      </c>
+      <c r="D23" t="n">
+        <v>956.847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.481053113937378</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260.788</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.568669319152832</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1014.312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7955641746520996</v>
+      </c>
+      <c r="D2" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7909057140350342</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9998672008514404</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.089897871017456</v>
+      </c>
+      <c r="D5" t="n">
+        <v>180.558</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6736922264099121</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6908988952636719</v>
+      </c>
+      <c r="D7" t="n">
+        <v>123.181</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6414778232574463</v>
+      </c>
+      <c r="D8" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6414620876312256</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6795673370361328</v>
+      </c>
+      <c r="D10" t="n">
+        <v>209.883</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6677639484405518</v>
+      </c>
+      <c r="D11" t="n">
+        <v>249.784</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.424771070480347</v>
+      </c>
+      <c r="D12" t="n">
+        <v>254.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.469170093536377</v>
+      </c>
+      <c r="D13" t="n">
+        <v>307.408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7842569351196289</v>
+      </c>
+      <c r="D14" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.813633918762207</v>
+      </c>
+      <c r="D15" t="n">
+        <v>181.42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.000050067901611</v>
+      </c>
+      <c r="D16" t="n">
+        <v>180.576</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.077577829360962</v>
+      </c>
+      <c r="D17" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6977930068969727</v>
+      </c>
+      <c r="D18" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6927533149719238</v>
+      </c>
+      <c r="D19" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6887831687927246</v>
+      </c>
+      <c r="D20" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6345009803771973</v>
+      </c>
+      <c r="D21" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6837611198425293</v>
+      </c>
+      <c r="D22" t="n">
+        <v>210.617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6747777462005615</v>
+      </c>
+      <c r="D23" t="n">
+        <v>956.847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.44123387336731</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260.788</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.306882858276367</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1014.312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7703268527984619</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8325619697570801</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100.204</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9448361396789551</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9635391235351562</v>
+      </c>
+      <c r="D5" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6768720149993896</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6587882041931152</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6395800113677979</v>
+      </c>
+      <c r="D8" t="n">
+        <v>121.073</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7613282203674316</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6930670738220215</v>
+      </c>
+      <c r="D10" t="n">
+        <v>209.883</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6859650611877441</v>
+      </c>
+      <c r="D11" t="n">
+        <v>226.349</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.363997936248779</v>
+      </c>
+      <c r="D12" t="n">
+        <v>254.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.385502099990845</v>
+      </c>
+      <c r="D13" t="n">
+        <v>307.408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7992250919342041</v>
+      </c>
+      <c r="D14" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8017280101776123</v>
+      </c>
+      <c r="D15" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.088169813156128</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9853842258453369</v>
+      </c>
+      <c r="D17" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6709098815917969</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.379</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6568281650543213</v>
+      </c>
+      <c r="D19" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6264791488647461</v>
+      </c>
+      <c r="D20" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6611220836639404</v>
+      </c>
+      <c r="D21" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7008106708526611</v>
+      </c>
+      <c r="D22" t="n">
+        <v>210.617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6978549957275391</v>
+      </c>
+      <c r="D23" t="n">
+        <v>956.847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.257794618606567</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260.788</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.503580808639526</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1014.312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8122408390045166</v>
+      </c>
+      <c r="D2" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7922589778900146</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9913399219512939</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.049600124359131</v>
+      </c>
+      <c r="D5" t="n">
+        <v>180.558</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7564809322357178</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.676131010055542</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.628715991973877</v>
+      </c>
+      <c r="D8" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6320059299468994</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6312289237976074</v>
+      </c>
+      <c r="D10" t="n">
+        <v>209.883</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6289949417114258</v>
+      </c>
+      <c r="D11" t="n">
+        <v>249.784</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.529214859008789</v>
+      </c>
+      <c r="D12" t="n">
+        <v>198.97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.348098993301392</v>
+      </c>
+      <c r="D13" t="n">
+        <v>307.408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7865850925445557</v>
+      </c>
+      <c r="D14" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7925069332122803</v>
+      </c>
+      <c r="D15" t="n">
+        <v>125.334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9845619201660156</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.004498958587646</v>
+      </c>
+      <c r="D17" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8536570072174072</v>
+      </c>
+      <c r="D18" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.672213077545166</v>
+      </c>
+      <c r="D19" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6431679725646973</v>
+      </c>
+      <c r="D20" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7140018939971924</v>
+      </c>
+      <c r="D21" t="n">
+        <v>122.535</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6578938961029053</v>
+      </c>
+      <c r="D22" t="n">
+        <v>212.114</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6776769161224365</v>
+      </c>
+      <c r="D23" t="n">
+        <v>956.847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.622224092483521</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260.788</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.561027050018311</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1014.312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7697901725769043</v>
+      </c>
+      <c r="D2" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8720519542694092</v>
+      </c>
+      <c r="D3" t="n">
+        <v>125.136</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.98319411277771</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6928000450134277</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7288808822631836</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6794300079345703</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6596269607543945</v>
+      </c>
+      <c r="D8" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7689940929412842</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6915819644927979</v>
+      </c>
+      <c r="D10" t="n">
+        <v>209.883</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6947052478790283</v>
+      </c>
+      <c r="D11" t="n">
+        <v>249.784</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.262824296951294</v>
+      </c>
+      <c r="D12" t="n">
+        <v>198.864</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.459445953369141</v>
+      </c>
+      <c r="D13" t="n">
+        <v>307.408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.776033878326416</v>
+      </c>
+      <c r="D14" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9255409240722656</v>
+      </c>
+      <c r="D15" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9969768524169922</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124.596</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.943580150604248</v>
+      </c>
+      <c r="D17" t="n">
+        <v>180.576</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7974588871002197</v>
+      </c>
+      <c r="D18" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6919107437133789</v>
+      </c>
+      <c r="D19" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6644339561462402</v>
+      </c>
+      <c r="D20" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6453728675842285</v>
+      </c>
+      <c r="D21" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7142999172210693</v>
+      </c>
+      <c r="D22" t="n">
+        <v>210.617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6721110343933105</v>
+      </c>
+      <c r="D23" t="n">
+        <v>956.847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.406387090682983</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260.788</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.621790885925293</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1016.477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7805798053741455</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7688357830047607</v>
+      </c>
+      <c r="D3" t="n">
+        <v>125.136</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9884579181671143</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9996187686920166</v>
+      </c>
+      <c r="D5" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6956281661987305</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6779251098632812</v>
+      </c>
+      <c r="D7" t="n">
+        <v>123.181</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3477959632873535</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.987</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6344959735870361</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7765119075775146</v>
+      </c>
+      <c r="D10" t="n">
+        <v>211.38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6729259490966797</v>
+      </c>
+      <c r="D11" t="n">
+        <v>249.784</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.418637037277222</v>
+      </c>
+      <c r="D12" t="n">
+        <v>254.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.430509805679321</v>
+      </c>
+      <c r="D13" t="n">
+        <v>307.408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7713959217071533</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7744431495666504</v>
+      </c>
+      <c r="D15" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9854810237884521</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.015344142913818</v>
+      </c>
+      <c r="D17" t="n">
+        <v>180.576</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6944789886474609</v>
+      </c>
+      <c r="D18" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8031380176544189</v>
+      </c>
+      <c r="D19" t="n">
+        <v>123.379</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6386079788208008</v>
+      </c>
+      <c r="D20" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6331970691680908</v>
+      </c>
+      <c r="D21" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7084050178527832</v>
+      </c>
+      <c r="D22" t="n">
+        <v>210.617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6705560684204102</v>
+      </c>
+      <c r="D23" t="n">
+        <v>956.847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.198220014572144</v>
+      </c>
+      <c r="D24" t="n">
+        <v>204.702</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.369959115982056</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1014.312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7677841186523438</v>
+      </c>
+      <c r="D2" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.788966178894043</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.98262619972229</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.000058889389038</v>
+      </c>
+      <c r="D5" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6622309684753418</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6981499195098877</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6086671352386475</v>
+      </c>
+      <c r="D8" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6373188495635986</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6424758434295654</v>
+      </c>
+      <c r="D10" t="n">
+        <v>209.883</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6847689151763916</v>
+      </c>
+      <c r="D11" t="n">
+        <v>249.784</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.367953777313232</v>
+      </c>
+      <c r="D12" t="n">
+        <v>254.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.486055850982666</v>
+      </c>
+      <c r="D13" t="n">
+        <v>307.408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8346188068389893</v>
+      </c>
+      <c r="D14" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7876541614532471</v>
+      </c>
+      <c r="D15" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.012195825576782</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9684910774230957</v>
+      </c>
+      <c r="D17" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6628820896148682</v>
+      </c>
+      <c r="D18" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7040469646453857</v>
+      </c>
+      <c r="D19" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6188967227935791</v>
+      </c>
+      <c r="D20" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5986440181732178</v>
+      </c>
+      <c r="D21" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6373622417449951</v>
+      </c>
+      <c r="D22" t="n">
+        <v>210.617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7777068614959717</v>
+      </c>
+      <c r="D23" t="n">
+        <v>956.847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.335693836212158</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260.788</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.426674842834473</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1014.312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8609509468078613</v>
+      </c>
+      <c r="D2" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7831201553344727</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123.639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.995941162109375</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.008875131607056</v>
+      </c>
+      <c r="D5" t="n">
+        <v>180.558</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8644058704376221</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.714137077331543</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121.684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6378130912780762</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115.672</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6408851146697998</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6842498779296875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>209.989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7720358371734619</v>
+      </c>
+      <c r="D11" t="n">
+        <v>251.281</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.4343421459198</v>
+      </c>
+      <c r="D12" t="n">
+        <v>254.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.484279632568359</v>
+      </c>
+      <c r="D13" t="n">
+        <v>307.408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7762050628662109</v>
+      </c>
+      <c r="D14" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7968029975891113</v>
+      </c>
+      <c r="D15" t="n">
+        <v>123.837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9760801792144775</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.01983904838562</v>
+      </c>
+      <c r="D17" t="n">
+        <v>180.576</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6316490173339844</v>
+      </c>
+      <c r="D18" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7030489444732666</v>
+      </c>
+      <c r="D19" t="n">
+        <v>121.882</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6380271911621094</v>
+      </c>
+      <c r="D20" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6539802551269531</v>
+      </c>
+      <c r="D21" t="n">
+        <v>121.038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6666297912597656</v>
+      </c>
+      <c r="D22" t="n">
+        <v>210.617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8561460971832275</v>
+      </c>
+      <c r="D23" t="n">
+        <v>956.847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.326380968093872</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260.788</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.356574058532715</v>
+      </c>
+      <c r="D25" t="n">
+        <v>958.226</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7821998596191406</v>
+        <v>0.7881898880004883</v>
       </c>
       <c r="D2" t="n">
-        <v>121.539</v>
+        <v>116.213</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7950809001922607</v>
+        <v>0.7921440601348877</v>
       </c>
       <c r="D3" t="n">
-        <v>121.539</v>
+        <v>116.213</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.131721019744873</v>
+        <v>1.006924867630005</v>
       </c>
       <c r="D4" t="n">
-        <v>178.458</v>
+        <v>117.046</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.011283874511719</v>
+        <v>1.001056909561157</v>
       </c>
       <c r="D5" t="n">
-        <v>122.372</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6906120777130127</v>
+        <v>0.7960281372070312</v>
       </c>
       <c r="D6" t="n">
-        <v>119.584</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6778519153594971</v>
+        <v>0.7064902782440186</v>
       </c>
       <c r="D7" t="n">
-        <v>119.584</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.668889045715332</v>
+        <v>0.651745080947876</v>
       </c>
       <c r="D8" t="n">
-        <v>118.92</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7086730003356934</v>
+        <v>0.7556512355804443</v>
       </c>
       <c r="D9" t="n">
-        <v>113.572</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7184090614318848</v>
+        <v>0.6787211894989014</v>
       </c>
       <c r="D10" t="n">
-        <v>178.939</v>
+        <v>202.875</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6707541942596436</v>
+        <v>0.6855700016021729</v>
       </c>
       <c r="D11" t="n">
-        <v>199.297</v>
+        <v>242.776</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.349465131759644</v>
+        <v>1.311807155609131</v>
       </c>
       <c r="D12" t="n">
-        <v>252.85</v>
+        <v>247.942</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.409409046173096</v>
+        <v>1.25604772567749</v>
       </c>
       <c r="D13" t="n">
-        <v>305.308</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +663,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8043599128723145</v>
+        <v>0.7997989654541016</v>
       </c>
       <c r="D14" t="n">
-        <v>121.737</v>
+        <v>116.829</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.814424991607666</v>
+        <v>0.7887899875640869</v>
       </c>
       <c r="D15" t="n">
-        <v>121.737</v>
+        <v>116.829</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.007726192474365</v>
+        <v>0.9974970817565918</v>
       </c>
       <c r="D16" t="n">
-        <v>122.39</v>
+        <v>117.064</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9946780204772949</v>
+        <v>0.9984731674194336</v>
       </c>
       <c r="D17" t="n">
-        <v>122.39</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7554402351379395</v>
+        <v>0.7027478218078613</v>
       </c>
       <c r="D18" t="n">
-        <v>119.782</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7170720100402832</v>
+        <v>0.6950628757476807</v>
       </c>
       <c r="D19" t="n">
-        <v>119.782</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7510418891906738</v>
+        <v>0.6688759326934814</v>
       </c>
       <c r="D20" t="n">
-        <v>118.938</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6492600440979004</v>
+        <v>0.673677921295166</v>
       </c>
       <c r="D21" t="n">
-        <v>118.938</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8032000064849854</v>
+        <v>0.7638928890228271</v>
       </c>
       <c r="D22" t="n">
-        <v>176.153</v>
+        <v>341.108</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7264149188995361</v>
+        <v>0.7085709571838379</v>
       </c>
       <c r="D23" t="n">
-        <v>601.836</v>
+        <v>949.8390000000001</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.337460994720459</v>
+        <v>1.40732741355896</v>
       </c>
       <c r="D24" t="n">
-        <v>227.805</v>
+        <v>253.78</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.506648063659668</v>
+        <v>1.459218263626099</v>
       </c>
       <c r="D25" t="n">
-        <v>803.117</v>
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7897369861602783</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8122608661651611</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.021774768829346</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.024476766586304</v>
+      </c>
+      <c r="D5" t="n">
+        <v>173.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7770130634307861</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6952178478240967</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6592741012573242</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6645340919494629</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6932048797607422</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.669450044631958</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.418488025665283</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.389003038406372</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7863559722900391</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.912510871887207</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.011651039123535</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.117232084274292</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.064</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6777229309082031</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7239389419555664</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6577410697937012</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6360888481140137</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6862101554870605</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7023108005523682</v>
+      </c>
+      <c r="D23" t="n">
+        <v>951.336</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.352245092391968</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.486706972122192</v>
+      </c>
+      <c r="D25" t="n">
+        <v>983.869</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7893691062927246</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7822592258453369</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.165800809860229</v>
+      </c>
+      <c r="D4" t="n">
+        <v>173.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9802210330963135</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7037868499755859</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7374382019042969</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6557860374450684</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6456336975097656</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6740820407867432</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.688499927520752</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.306396245956421</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.856</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.38615608215332</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.782097339630127</v>
+      </c>
+      <c r="D14" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8088371753692627</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.003989934921265</v>
+      </c>
+      <c r="D16" t="n">
+        <v>115.985</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9953908920288086</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.064</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8092200756072998</v>
+      </c>
+      <c r="D18" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9649770259857178</v>
+      </c>
+      <c r="D19" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6918232440948486</v>
+      </c>
+      <c r="D20" t="n">
+        <v>115.527</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6513099670410156</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6701769828796387</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.712742805480957</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.344002962112427</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.362</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.483656883239746</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7656347751617432</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7859179973602295</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.007867813110352</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.017113924026489</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6896340847015381</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6799211502075195</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6579020023345947</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6869549751281738</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6824698448181152</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.680253267288208</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.390311002731323</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.766281843185425</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8100478649139404</v>
+      </c>
+      <c r="D14" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7975201606750488</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.014993190765381</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.097724914550781</v>
+      </c>
+      <c r="D17" t="n">
+        <v>173.568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6971762180328369</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7019417285919189</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6480441093444824</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6470248699188232</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.690298318862915</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6745390892028809</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.353621006011963</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.601657867431641</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7830121517181396</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.213</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7840578556060791</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9935569763183594</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.040839195251465</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6969149112701416</v>
+      </c>
+      <c r="D6" t="n">
+        <v>116.173</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7141537666320801</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6627256870269775</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6768310070037842</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6947388648986816</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6885571479797363</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.38673210144043</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.438320875167847</v>
+      </c>
+      <c r="D13" t="n">
+        <v>299.982</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7773916721343994</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9208478927612305</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9977548122406006</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.064</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.009417057037354</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6786429882049561</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7317819595336914</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6578428745269775</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.665647029876709</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113.612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7207911014556885</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.688</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6880049705505371</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.421</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.300132036209106</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.362</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.508035182952881</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7928848266601562</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7785618305206299</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.998363733291626</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.046</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.026566028594971</v>
+      </c>
+      <c r="D5" t="n">
+        <v>173.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7024319171905518</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6932857036590576</v>
+      </c>
+      <c r="D7" t="n">
+        <v>116.173</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6755440235137939</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115.509</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6537117958068848</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6796410083770752</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7021501064300537</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.409579992294312</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.39883017539978</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7943391799926758</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8341710567474365</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9996459484100342</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.018270015716553</v>
+      </c>
+      <c r="D17" t="n">
+        <v>173.568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6652040481567383</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6881470680236816</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6448278427124023</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6524178981781006</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7820029258728027</v>
+      </c>
+      <c r="D22" t="n">
+        <v>205.106</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6932542324066162</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.409456729888916</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.46495795249939</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8246200084686279</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9060041904449463</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.008817911148071</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.001720905303955</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6887900829315186</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7141706943511963</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6790251731872559</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6350460052490234</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6975419521331787</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6762850284576416</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.398487091064453</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.368733882904053</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7910621166229248</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9060900211334229</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.006505012512207</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.004321098327637</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6778519153594971</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7904558181762695</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6432950496673584</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6726138591766357</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7044479846954346</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7463209629058838</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.340541839599609</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.489037990570068</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7838170528411865</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.776907205581665</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.213</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9852001667022705</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.013127326965332</v>
+      </c>
+      <c r="D5" t="n">
+        <v>173.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.68035888671875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.696321964263916</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6570000648498535</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6505746841430664</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7946782112121582</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6765918731689453</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.453374147415161</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.41566801071167</v>
+      </c>
+      <c r="D13" t="n">
+        <v>299.982</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7777750492095947</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7752509117126465</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.00035285949707</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.003703117370605</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7983560562133789</v>
+      </c>
+      <c r="D18" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6834018230438232</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.649921178817749</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6527779102325439</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7132501602172852</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7006978988647461</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.320962190628052</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.492970943450928</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1006.886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7922530174255371</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7919700145721436</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.017213821411133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>173.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9800539016723633</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7013847827911377</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.258</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7241809368133545</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6586229801177979</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6525859832763672</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6755216121673584</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7026569843292236</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.421146154403687</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.332730054855347</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7977447509765625</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8224971294403076</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.104737758636475</v>
+      </c>
+      <c r="D16" t="n">
+        <v>173.568</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.016396045684814</v>
+      </c>
+      <c r="D17" t="n">
+        <v>173.568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6940159797668457</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6813020706176758</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7111899852752686</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6806058883666992</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7584171295166016</v>
+      </c>
+      <c r="D22" t="n">
+        <v>205.106</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6921930313110352</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.393411874771118</v>
+      </c>
+      <c r="D24" t="n">
+        <v>197.694</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.44748592376709</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7854311466217041</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8020777702331543</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.002607107162476</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9890091419219971</v>
+      </c>
+      <c r="D5" t="n">
+        <v>93.611</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.695512056350708</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7070698738098145</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6437981128692627</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90.577</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6665647029876709</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7606918811798096</v>
+      </c>
+      <c r="D10" t="n">
+        <v>204.372</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6668689250946045</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.416067838668823</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.340385913848877</v>
+      </c>
+      <c r="D13" t="n">
+        <v>244.314</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7867271900177002</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8043057918548584</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.007949113845825</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.983814001083374</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6822428703308105</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7193710803985596</v>
+      </c>
+      <c r="D19" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6465709209442139</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.667078971862793</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7373042106628418</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6816070079803467</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.354374170303345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.408021926879883</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8332610130310059</v>
+        <v>0.8026392459869385</v>
       </c>
       <c r="D2" t="n">
-        <v>123.036</v>
+        <v>116.213</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +487,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.901735782623291</v>
+        <v>0.7848849296569824</v>
       </c>
       <c r="D3" t="n">
-        <v>123.036</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.010292053222656</v>
+        <v>1.005140066146851</v>
       </c>
       <c r="D4" t="n">
-        <v>122.372</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9890859127044678</v>
+        <v>1.007379055023193</v>
       </c>
       <c r="D5" t="n">
-        <v>122.372</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6984901428222656</v>
+        <v>0.6966180801391602</v>
       </c>
       <c r="D6" t="n">
-        <v>119.584</v>
+        <v>116.173</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7014238834381104</v>
+        <v>0.7805619239807129</v>
       </c>
       <c r="D7" t="n">
-        <v>119.584</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6702330112457275</v>
+        <v>0.6699337959289551</v>
       </c>
       <c r="D8" t="n">
-        <v>118.92</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7551290988922119</v>
+        <v>0.7552459239959717</v>
       </c>
       <c r="D9" t="n">
-        <v>120.417</v>
+        <v>113.594</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6916558742523193</v>
+        <v>0.6987569332122803</v>
       </c>
       <c r="D10" t="n">
-        <v>207.783</v>
+        <v>202.875</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.690554141998291</v>
+        <v>0.7164359092712402</v>
       </c>
       <c r="D11" t="n">
-        <v>247.684</v>
+        <v>242.776</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.309067964553833</v>
+        <v>1.391501903533936</v>
       </c>
       <c r="D12" t="n">
-        <v>252.85</v>
+        <v>247.524</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.339741945266724</v>
+        <v>1.398847103118896</v>
       </c>
       <c r="D13" t="n">
-        <v>305.308</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9106650352478027</v>
+        <v>0.7800021171569824</v>
       </c>
       <c r="D14" t="n">
-        <v>123.234</v>
+        <v>116.829</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9130747318267822</v>
+        <v>0.8655869960784912</v>
       </c>
       <c r="D15" t="n">
-        <v>121.737</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.175053119659424</v>
+        <v>1.027151107788086</v>
       </c>
       <c r="D16" t="n">
-        <v>178.476</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9891719818115234</v>
+        <v>1.054347991943359</v>
       </c>
       <c r="D17" t="n">
-        <v>122.39</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6784379482269287</v>
+        <v>0.6930279731750488</v>
       </c>
       <c r="D18" t="n">
-        <v>119.782</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7975568771362305</v>
+        <v>0.7080860137939453</v>
       </c>
       <c r="D19" t="n">
-        <v>121.279</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7531802654266357</v>
+        <v>0.6627750396728516</v>
       </c>
       <c r="D20" t="n">
-        <v>118.938</v>
+        <v>113.612</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.761915922164917</v>
+        <v>0.6762120723724365</v>
       </c>
       <c r="D21" t="n">
-        <v>118.938</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7104058265686035</v>
+        <v>0.7088539600372314</v>
       </c>
       <c r="D22" t="n">
-        <v>208.517</v>
+        <v>203.609</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7172658443450928</v>
+        <v>0.6910650730133057</v>
       </c>
       <c r="D23" t="n">
-        <v>954.747</v>
+        <v>949.8390000000001</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.44765305519104</v>
+        <v>1.546645879745483</v>
       </c>
       <c r="D24" t="n">
-        <v>258.688</v>
+        <v>253.78</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.586519002914429</v>
+        <v>1.666436910629272</v>
       </c>
       <c r="D25" t="n">
-        <v>1014.377</v>
+        <v>1146.968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8044228553771973</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7674190998077393</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.032469987869263</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.000346899032593</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7104892730712891</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6995699405670166</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6746950149536133</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6552178859710693</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7066950798034668</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6881983280181885</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.443694829940796</v>
+      </c>
+      <c r="D12" t="n">
+        <v>248.048</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.399021863937378</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.865847110748291</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.411</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7886807918548584</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0678551197052</v>
+      </c>
+      <c r="D16" t="n">
+        <v>173.568</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.02585506439209</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6912729740142822</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.703204870223999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7359170913696289</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6439888477325439</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6906449794769287</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7751288414001465</v>
+      </c>
+      <c r="D23" t="n">
+        <v>951.336</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.233895063400269</v>
+      </c>
+      <c r="D24" t="n">
+        <v>197.694</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.523315906524658</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8508527278900146</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7983200550079346</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.030289888381958</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.046</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.011260986328125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7468574047088623</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7132160663604736</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6596341133117676</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6642582416534424</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7004292011260986</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.457</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7034640312194824</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.440102100372314</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.524</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.562477111816406</v>
+      </c>
+      <c r="D13" t="n">
+        <v>299.982</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7954139709472656</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8279829025268555</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.680498838424683</v>
+      </c>
+      <c r="D16" t="n">
+        <v>185.545</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.031141996383667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6737196445465088</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7373299598693848</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7442560195922852</v>
+      </c>
+      <c r="D20" t="n">
+        <v>113.612</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6585090160369873</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113.612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6648237705230713</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6687989234924316</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.428006172180176</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.362</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.515333890914917</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7933218479156494</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7689578533172607</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.213</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.351898908615112</v>
+      </c>
+      <c r="D4" t="n">
+        <v>173.132</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.731427907943726</v>
+      </c>
+      <c r="D5" t="n">
+        <v>175.715</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7012250423431396</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.258</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7917072772979736</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6784040927886963</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6772971153259277</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7654268741607666</v>
+      </c>
+      <c r="D10" t="n">
+        <v>204.372</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6862249374389648</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.444300651550293</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.453727960586548</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7758002281188965</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8133649826049805</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9975852966308594</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.014145135879517</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7070519924163818</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7166869640350342</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6686148643493652</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6582169532775879</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7117760181427002</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7155561447143555</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.362202167510986</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.45989990234375</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.780134916305542</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7786087989807129</v>
+      </c>
+      <c r="D3" t="n">
+        <v>94.693</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.992171049118042</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.033900022506714</v>
+      </c>
+      <c r="D5" t="n">
+        <v>173.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6955502033233643</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.718073844909668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.258</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6674091815948486</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115.509</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6814529895782471</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6902027130126953</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7614138126373291</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.482404947280884</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.471441984176636</v>
+      </c>
+      <c r="D13" t="n">
+        <v>299.982</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7807948589324951</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.411</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.80867600440979</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9827849864959717</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.042935132980347</v>
+      </c>
+      <c r="D17" t="n">
+        <v>173.568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7792050838470459</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7591829299926758</v>
+      </c>
+      <c r="D19" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6604149341583252</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7089626789093018</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7395389080047607</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8531181812286377</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.260035991668701</v>
+      </c>
+      <c r="D24" t="n">
+        <v>197.276</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.918664932250977</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1009.469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8098781108856201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7987961769104004</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.12018895149231</v>
+      </c>
+      <c r="D4" t="n">
+        <v>173.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.053900957107544</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7216689586639404</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8075206279754639</v>
+      </c>
+      <c r="D7" t="n">
+        <v>116.173</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6660118103027344</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6730887889862061</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6877577304840088</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6836159229278564</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.555506944656372</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.544810056686401</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8152933120727539</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8051280975341797</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.006964921951294</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.019043207168579</v>
+      </c>
+      <c r="D17" t="n">
+        <v>173.568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7023999691009521</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7969529628753662</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6615791320800781</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6666269302368164</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6987540721893311</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7831108570098877</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1087.338</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.476402997970581</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.59393572807312</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1009.469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7879250049591064</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7832119464874268</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.092039823532104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>116.993</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.009498834609985</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7025113105773926</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7189619541168213</v>
+      </c>
+      <c r="D7" t="n">
+        <v>116.173</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7780129909515381</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7621259689331055</v>
+      </c>
+      <c r="D9" t="n">
+        <v>115.509</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7233819961547852</v>
+      </c>
+      <c r="D10" t="n">
+        <v>204.372</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6851661205291748</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.508159160614014</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.463980913162231</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7950341701507568</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9152178764343262</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.021614074707031</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.007138013839722</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7053778171539307</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6756660938262939</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7121412754058838</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6513888835906982</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8734579086303711</v>
+      </c>
+      <c r="D22" t="n">
+        <v>205.106</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7942631244659424</v>
+      </c>
+      <c r="D23" t="n">
+        <v>951.336</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.437207937240601</v>
+      </c>
+      <c r="D24" t="n">
+        <v>197.694</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.550293922424316</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7940828800201416</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.784454345703125</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.035921096801758</v>
+      </c>
+      <c r="D4" t="n">
+        <v>173.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9999749660491943</v>
+      </c>
+      <c r="D5" t="n">
+        <v>94.029</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6896770000457764</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.258</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7858150005340576</v>
+      </c>
+      <c r="D7" t="n">
+        <v>116.173</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.668194055557251</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.656198263168335</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6966710090637207</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6938290596008301</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.278417825698853</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.856</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.369086027145386</v>
+      </c>
+      <c r="D13" t="n">
+        <v>299.982</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8006117343902588</v>
+      </c>
+      <c r="D14" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9471590518951416</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.026798009872437</v>
+      </c>
+      <c r="D16" t="n">
+        <v>173.568</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9916238784790039</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6786849498748779</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4368634223937988</v>
+      </c>
+      <c r="D19" t="n">
+        <v>32.189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6457159519195557</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6759850978851318</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.710385799407959</v>
+      </c>
+      <c r="D22" t="n">
+        <v>205.106</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7871370315551758</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.272282123565674</v>
+      </c>
+      <c r="D24" t="n">
+        <v>265.757</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.499924898147583</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8133859634399414</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7737760543823242</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9995379447937012</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9982130527496338</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7067461013793945</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.897075891494751</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7534561157226562</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6518120765686035</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7051451206207275</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.457</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7513372898101807</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.417483568191528</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.383177995681763</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7811200618743896</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7955129146575928</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9969930648803711</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.02949595451355</v>
+      </c>
+      <c r="D17" t="n">
+        <v>117.064</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6988139152526855</v>
+      </c>
+      <c r="D18" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7945852279663086</v>
+      </c>
+      <c r="D19" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7521252632141113</v>
+      </c>
+      <c r="D20" t="n">
+        <v>115.527</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6658549308776855</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.710270881652832</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7869987487792969</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1087.338</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.471246957778931</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.362</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.602935075759888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1007.304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7896740436553955</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8131546974182129</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.024718046188354</v>
+      </c>
+      <c r="D4" t="n">
+        <v>173.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.018821001052856</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6996610164642334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.258</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7438199520111084</v>
+      </c>
+      <c r="D7" t="n">
+        <v>116.173</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6559460163116455</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6616108417510986</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7103490829467773</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.34453296661377</v>
+      </c>
+      <c r="D11" t="n">
+        <v>300.359</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.429139137268066</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.43674898147583</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7772519588470459</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.411</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8003709316253662</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.101258039474487</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.032655239105225</v>
+      </c>
+      <c r="D17" t="n">
+        <v>173.568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6965141296386719</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6900029182434082</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6636087894439697</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6686930656433105</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6924469470977783</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6843359470367432</v>
+      </c>
+      <c r="D23" t="n">
+        <v>949.8390000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.374566316604614</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.362</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.595856904983521</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1009.469</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C2" t="n">
-        <v>2.428809881210327</v>
+        <v>2.857054948806763</v>
       </c>
       <c r="D2" t="n">
-        <v>545.506</v>
+        <v>540.1799999999999</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C3" t="n">
-        <v>2.37378716468811</v>
+        <v>2.855087995529175</v>
       </c>
       <c r="D3" t="n">
-        <v>545.506</v>
+        <v>540.598</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.496087789535522</v>
+        <v>2.987150192260742</v>
       </c>
       <c r="D4" t="n">
-        <v>544.842</v>
+        <v>539.516</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.511951684951782</v>
+        <v>3.008212089538574</v>
       </c>
       <c r="D5" t="n">
-        <v>544.842</v>
+        <v>539.934</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7080490589141846</v>
+        <v>0.695183277130127</v>
       </c>
       <c r="D6" t="n">
-        <v>119.584</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7043869495391846</v>
+        <v>0.7747230529785156</v>
       </c>
       <c r="D7" t="n">
-        <v>119.584</v>
+        <v>116.173</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6475489139556885</v>
+        <v>0.6935539245605469</v>
       </c>
       <c r="D8" t="n">
-        <v>118.92</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7007520198822021</v>
+        <v>0.6434712409973145</v>
       </c>
       <c r="D9" t="n">
-        <v>118.92</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.47664999961853</v>
+        <v>1.715540885925293</v>
       </c>
       <c r="D10" t="n">
-        <v>238.018</v>
+        <v>245.505</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.41044807434082</v>
+        <v>1.570456027984619</v>
       </c>
       <c r="D11" t="n">
-        <v>258.376</v>
+        <v>265.863</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>5.089534997940063</v>
+        <v>2.47763204574585</v>
       </c>
       <c r="D12" t="n">
-        <v>2077.736</v>
+        <v>250.363</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.154598951339722</v>
+        <v>2.250244855880737</v>
       </c>
       <c r="D13" t="n">
-        <v>270.812</v>
+        <v>280.9</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +663,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C14" t="n">
-        <v>2.297042846679688</v>
+        <v>2.744879961013794</v>
       </c>
       <c r="D14" t="n">
-        <v>545.704</v>
+        <v>540.796</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C15" t="n">
-        <v>2.362437963485718</v>
+        <v>2.834352970123291</v>
       </c>
       <c r="D15" t="n">
-        <v>182.981</v>
+        <v>540.796</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.639878273010254</v>
+        <v>2.902589082717896</v>
       </c>
       <c r="D16" t="n">
-        <v>544.86</v>
+        <v>539.952</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.565930843353271</v>
+        <v>2.860152959823608</v>
       </c>
       <c r="D17" t="n">
-        <v>544.86</v>
+        <v>539.952</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7447929382324219</v>
+        <v>0.7002511024475098</v>
       </c>
       <c r="D18" t="n">
-        <v>119.782</v>
+        <v>116.371</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6824731826782227</v>
+        <v>0.6827349662780762</v>
       </c>
       <c r="D19" t="n">
-        <v>119.782</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7435908317565918</v>
+        <v>0.6456260681152344</v>
       </c>
       <c r="D20" t="n">
-        <v>119.044</v>
+        <v>113.612</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7344651222229004</v>
+        <v>0.7182371616363525</v>
       </c>
       <c r="D21" t="n">
-        <v>118.938</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.549209833145142</v>
+        <v>1.707359790802002</v>
       </c>
       <c r="D22" t="n">
-        <v>235.265</v>
+        <v>242.752</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.576204776763916</v>
+        <v>1.873274087905884</v>
       </c>
       <c r="D23" t="n">
-        <v>646.002</v>
+        <v>581.346</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.303790092468262</v>
+        <v>2.585033893585205</v>
       </c>
       <c r="D24" t="n">
-        <v>257.085</v>
+        <v>252.177</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.465884923934937</v>
+        <v>2.565043926239014</v>
       </c>
       <c r="D25" t="n">
-        <v>671.528</v>
+        <v>1003.699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.912891864776611</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.1799999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.810616731643677</v>
+      </c>
+      <c r="D3" t="n">
+        <v>188.105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.867245197296143</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.897889137268066</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6964590549468994</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7824819087982178</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6388890743255615</v>
+      </c>
+      <c r="D8" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7185530662536621</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.628523111343384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.565680742263794</v>
+      </c>
+      <c r="D11" t="n">
+        <v>255.633</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.364066123962402</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.363</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.495440006256104</v>
+      </c>
+      <c r="D13" t="n">
+        <v>281.318</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.760787010192871</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.659188985824585</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.876875162124634</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.91247820854187</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7084507942199707</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6917760372161865</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6518301963806152</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6775789260864258</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113.612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.765768051147461</v>
+      </c>
+      <c r="D22" t="n">
+        <v>258.166</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.76874303817749</v>
+      </c>
+      <c r="D23" t="n">
+        <v>651.324</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.473406076431274</v>
+      </c>
+      <c r="D24" t="n">
+        <v>252.177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.680688858032227</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1003.699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.720428943634033</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.751754999160767</v>
+      </c>
+      <c r="D3" t="n">
+        <v>177.875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.854300022125244</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.860801935195923</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7105658054351807</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7395310401916504</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6385958194732666</v>
+      </c>
+      <c r="D8" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6531989574432373</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.692976236343384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>235.275</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.568682909011841</v>
+      </c>
+      <c r="D11" t="n">
+        <v>265.863</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.309698104858398</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.363</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.418897867202759</v>
+      </c>
+      <c r="D13" t="n">
+        <v>281.318</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.8059241771698</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.796692848205566</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.858684778213501</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.90715217590332</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7387740612030029</v>
+      </c>
+      <c r="D18" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7314469814300537</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.654810905456543</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6721997261047363</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.720242023468018</v>
+      </c>
+      <c r="D22" t="n">
+        <v>242.334</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.767601251602173</v>
+      </c>
+      <c r="D23" t="n">
+        <v>651.324</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.544019937515259</v>
+      </c>
+      <c r="D24" t="n">
+        <v>389.676</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.509382247924805</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1141.198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.819157123565674</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.806006908416748</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.875226736068726</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.891244173049927</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7663390636444092</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7033519744873047</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6726861000061035</v>
+      </c>
+      <c r="D8" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6503243446350098</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.631597757339478</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.58071231842041</v>
+      </c>
+      <c r="D11" t="n">
+        <v>255.633</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.467950105667114</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.363</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.496351957321167</v>
+      </c>
+      <c r="D13" t="n">
+        <v>255.674</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.720219135284424</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.752794981002808</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.85784912109375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.534</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.929970979690552</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.534</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6704609394073486</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8561599254608154</v>
+      </c>
+      <c r="D19" t="n">
+        <v>115.953</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6516499519348145</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6695671081542969</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.722626209259033</v>
+      </c>
+      <c r="D22" t="n">
+        <v>242.752</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.743603944778442</v>
+      </c>
+      <c r="D23" t="n">
+        <v>650.9059999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.725030899047852</v>
+      </c>
+      <c r="D24" t="n">
+        <v>252.177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.634220123291016</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1003.699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.805245876312256</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.739004850387573</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.380956172943115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.280887842178345</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6812231540679932</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7249660491943359</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7527508735656738</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.649756908416748</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.643632173538208</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.583306074142456</v>
+      </c>
+      <c r="D11" t="n">
+        <v>255.633</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.37005615234375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.363</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.288648128509521</v>
+      </c>
+      <c r="D13" t="n">
+        <v>265.904</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.774364948272705</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.79961109161377</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.884925842285156</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.847298145294189</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6919341087341309</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6918718814849854</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.645442008972168</v>
+      </c>
+      <c r="D20" t="n">
+        <v>113.612</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6600346565246582</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.722830057144165</v>
+      </c>
+      <c r="D22" t="n">
+        <v>242.752</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.776793003082275</v>
+      </c>
+      <c r="D23" t="n">
+        <v>651.324</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.528085947036743</v>
+      </c>
+      <c r="D24" t="n">
+        <v>251.759</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.663300275802612</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1003.699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.74910306930542</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.939024209976196</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.1799999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.857790946960449</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.894792318344116</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6846961975097656</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7183241844177246</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6785299777984619</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6562569141387939</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.659378051757812</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.630577802658081</v>
+      </c>
+      <c r="D11" t="n">
+        <v>265.445</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.350749015808105</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.363</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.39035701751709</v>
+      </c>
+      <c r="D13" t="n">
+        <v>281.318</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.785430192947388</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.75068998336792</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.874471187591553</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.871629953384399</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6914808750152588</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7086670398712158</v>
+      </c>
+      <c r="D19" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6398940086364746</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6544020175933838</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.786325931549072</v>
+      </c>
+      <c r="D22" t="n">
+        <v>242.752</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.765876054763794</v>
+      </c>
+      <c r="D23" t="n">
+        <v>651.324</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.518902063369751</v>
+      </c>
+      <c r="D24" t="n">
+        <v>252.177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.606274604797363</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1141.198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.789630889892578</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.880399227142334</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.1799999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.853357076644897</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.516</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.891305923461914</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7416529655456543</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.258</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7808399200439453</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6669809818267822</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6490061283111572</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.662672996520996</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.563948154449463</v>
+      </c>
+      <c r="D11" t="n">
+        <v>265.445</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.478466987609863</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.363</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.360748052597046</v>
+      </c>
+      <c r="D13" t="n">
+        <v>265.904</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.703814029693604</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.378</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.815840005874634</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.942400932312012</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.893120050430298</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7948799133300781</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7435431480407715</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6448349952697754</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6827468872070312</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.712249040603638</v>
+      </c>
+      <c r="D22" t="n">
+        <v>242.752</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.758127689361572</v>
+      </c>
+      <c r="D23" t="n">
+        <v>651.324</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.469373226165771</v>
+      </c>
+      <c r="D24" t="n">
+        <v>252.177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.739903926849365</v>
+      </c>
+      <c r="D25" t="n">
+        <v>666.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.754507064819336</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.957169055938721</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.886487007141113</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.908324718475342</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7136073112487793</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7053730487823486</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6916170120239258</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6534557342529297</v>
+      </c>
+      <c r="D9" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.643599033355713</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.594382762908936</v>
+      </c>
+      <c r="D11" t="n">
+        <v>265.863</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.42070198059082</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.363</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.434042930603027</v>
+      </c>
+      <c r="D13" t="n">
+        <v>280.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.664532899856567</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.378</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.876370906829834</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.883716106414795</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.534</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.994690179824829</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6955940723419189</v>
+      </c>
+      <c r="D18" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6763200759887695</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6915597915649414</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7515709400177002</v>
+      </c>
+      <c r="D21" t="n">
+        <v>115.527</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.811627149581909</v>
+      </c>
+      <c r="D22" t="n">
+        <v>257.748</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.876765012741089</v>
+      </c>
+      <c r="D23" t="n">
+        <v>651.324</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.591174840927124</v>
+      </c>
+      <c r="D24" t="n">
+        <v>251.759</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.560109853744507</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1003.699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.794506072998047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.863897085189819</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.1799999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.01592493057251</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.912603139877319</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7047669887542725</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6976571083068848</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6478872299194336</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6575911045074463</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90.577</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.622509956359863</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.574365139007568</v>
+      </c>
+      <c r="D11" t="n">
+        <v>255.633</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.437375068664551</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.363</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.087822198867798</v>
+      </c>
+      <c r="D13" t="n">
+        <v>262.701</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.652685165405273</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.378</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.738227128982544</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.378</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.940510988235474</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.534</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.873003959655762</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7072279453277588</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7385430335998535</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6653988361358643</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6640520095825195</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.723779201507568</v>
+      </c>
+      <c r="D22" t="n">
+        <v>242.334</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.027822017669678</v>
+      </c>
+      <c r="D23" t="n">
+        <v>666.3200000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.713217973709106</v>
+      </c>
+      <c r="D24" t="n">
+        <v>726.755</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.602118015289307</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1003.699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.814895153045654</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.81482195854187</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.858942747116089</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.889678239822388</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6992788314819336</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7056126594543457</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6449251174926758</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6496429443359375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.78515887260437</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.73350191116333</v>
+      </c>
+      <c r="D11" t="n">
+        <v>265.863</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.367774963378906</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.363</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.491214990615845</v>
+      </c>
+      <c r="D13" t="n">
+        <v>281.318</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.780563831329346</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.874335289001465</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.925377130508423</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.87654185295105</v>
+      </c>
+      <c r="D17" t="n">
+        <v>516.5170000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7179512977600098</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6759438514709473</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6933953762054443</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6672110557556152</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.803030014038086</v>
+      </c>
+      <c r="D22" t="n">
+        <v>258.166</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.755099773406982</v>
+      </c>
+      <c r="D23" t="n">
+        <v>651.324</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.474269390106201</v>
+      </c>
+      <c r="D24" t="n">
+        <v>252.177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.621993780136108</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1003.699</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -471,13 +471,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.791205883026123</v>
+        <v>0.8546898365020752</v>
       </c>
       <c r="D2" t="n">
-        <v>125.136</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="3">
@@ -490,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7960929870605469</v>
+        <v>0.8435819149017334</v>
       </c>
       <c r="D3" t="n">
-        <v>125.136</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9934720993041992</v>
+        <v>0.780879020690918</v>
       </c>
       <c r="D4" t="n">
-        <v>124.472</v>
+        <v>34.361</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.026705026626587</v>
+        <v>1.060816287994385</v>
       </c>
       <c r="D5" t="n">
-        <v>124.472</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6730809211730957</v>
+        <v>0.6870763301849365</v>
       </c>
       <c r="D6" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6453080177307129</v>
+        <v>0.6802136898040771</v>
       </c>
       <c r="D7" t="n">
-        <v>121.684</v>
+        <v>114.258</v>
       </c>
     </row>
     <row r="8">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6635348796844482</v>
+        <v>0.6606290340423584</v>
       </c>
       <c r="D8" t="n">
-        <v>121.02</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6513350009918213</v>
+        <v>0.6573617458343506</v>
       </c>
       <c r="D9" t="n">
-        <v>121.02</v>
+        <v>113.594</v>
       </c>
     </row>
     <row r="10">
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6902880668640137</v>
+        <v>0.6917853355407715</v>
       </c>
       <c r="D10" t="n">
-        <v>209.883</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7254438400268555</v>
+        <v>0.6986830234527588</v>
       </c>
       <c r="D11" t="n">
-        <v>249.784</v>
+        <v>195.886</v>
       </c>
     </row>
     <row r="12">
@@ -634,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.310860157012939</v>
+        <v>1.394327878952026</v>
       </c>
       <c r="D12" t="n">
-        <v>198.864</v>
+        <v>220.64</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.340090036392212</v>
+        <v>1.296244859695435</v>
       </c>
       <c r="D13" t="n">
-        <v>307.514</v>
+        <v>251.595</v>
       </c>
     </row>
     <row r="14">
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7914187908172607</v>
+        <v>1.02186393737793</v>
       </c>
       <c r="D14" t="n">
-        <v>123.837</v>
+        <v>174.412</v>
       </c>
     </row>
     <row r="15">
@@ -682,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7938559055328369</v>
+        <v>0.8486127853393555</v>
       </c>
       <c r="D15" t="n">
-        <v>125.334</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.13785719871521</v>
+        <v>1.063681602478027</v>
       </c>
       <c r="D16" t="n">
-        <v>180.576</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9553782939910889</v>
+        <v>1.06143593788147</v>
       </c>
       <c r="D17" t="n">
-        <v>124.49</v>
+        <v>117.064</v>
       </c>
     </row>
     <row r="18">
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6687891483306885</v>
+        <v>0.6851551532745361</v>
       </c>
       <c r="D18" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.781364917755127</v>
+        <v>0.6760261058807373</v>
       </c>
       <c r="D19" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -762,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6332187652587891</v>
+        <v>0.6601788997650146</v>
       </c>
       <c r="D20" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6860198974609375</v>
+        <v>0.6406159400939941</v>
       </c>
       <c r="D21" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.709871768951416</v>
+        <v>0.7030239105224609</v>
       </c>
       <c r="D22" t="n">
-        <v>210.617</v>
+        <v>308.359</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6780769824981689</v>
+        <v>0.7492179870605469</v>
       </c>
       <c r="D23" t="n">
-        <v>1094.346</v>
+        <v>580.929</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.284092903137207</v>
+        <v>1.363814115524292</v>
       </c>
       <c r="D24" t="n">
-        <v>260.788</v>
+        <v>222.454</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.402217864990234</v>
+        <v>1.490965843200684</v>
       </c>
       <c r="D25" t="n">
-        <v>1014.312</v>
+        <v>637.3150000000001</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7754368782043457</v>
+        <v>0.8509690761566162</v>
       </c>
       <c r="D2" t="n">
-        <v>123.639</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="3">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8081321716308594</v>
+        <v>0.8538081645965576</v>
       </c>
       <c r="D3" t="n">
-        <v>123.639</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -931,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9782400131225586</v>
+        <v>1.147459030151367</v>
       </c>
       <c r="D4" t="n">
-        <v>124.472</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9867351055145264</v>
+        <v>1.060065031051636</v>
       </c>
       <c r="D5" t="n">
-        <v>124.472</v>
+        <v>173.132</v>
       </c>
     </row>
     <row r="6">
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6816291809082031</v>
+        <v>0.7047121524810791</v>
       </c>
       <c r="D6" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.665313720703125</v>
+        <v>0.6914560794830322</v>
       </c>
       <c r="D7" t="n">
-        <v>121.684</v>
+        <v>114.258</v>
       </c>
     </row>
     <row r="8">
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6120917797088623</v>
+        <v>0.6578168869018555</v>
       </c>
       <c r="D8" t="n">
-        <v>121.02</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6374270915985107</v>
+        <v>0.651343822479248</v>
       </c>
       <c r="D9" t="n">
-        <v>121.02</v>
+        <v>113.594</v>
       </c>
     </row>
     <row r="10">
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7710320949554443</v>
+        <v>0.6816940307617188</v>
       </c>
       <c r="D10" t="n">
-        <v>209.883</v>
+        <v>175.528</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6412868499755859</v>
+        <v>0.6894340515136719</v>
       </c>
       <c r="D11" t="n">
-        <v>249.784</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -1059,10 +1059,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.329591035842896</v>
+        <v>1.398819923400879</v>
       </c>
       <c r="D12" t="n">
-        <v>254.95</v>
+        <v>221.058</v>
       </c>
     </row>
     <row r="13">
@@ -1075,10 +1075,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.367624998092651</v>
+        <v>1.389807224273682</v>
       </c>
       <c r="D13" t="n">
-        <v>307.408</v>
+        <v>251.595</v>
       </c>
     </row>
     <row r="14">
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7704229354858398</v>
+        <v>0.8680150508880615</v>
       </c>
       <c r="D14" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.830111026763916</v>
+        <v>0.8504400253295898</v>
       </c>
       <c r="D15" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9927117824554443</v>
+        <v>1.081835031509399</v>
       </c>
       <c r="D16" t="n">
-        <v>124.49</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="17">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9840450286865234</v>
+        <v>1.064861059188843</v>
       </c>
       <c r="D17" t="n">
-        <v>124.49</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="18">
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6754019260406494</v>
+        <v>0.733717679977417</v>
       </c>
       <c r="D18" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6546630859375</v>
+        <v>0.6987669467926025</v>
       </c>
       <c r="D19" t="n">
-        <v>121.882</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="20">
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6013650894165039</v>
+        <v>0.6450910568237305</v>
       </c>
       <c r="D20" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6509780883789062</v>
+        <v>0.7654421329498291</v>
       </c>
       <c r="D21" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6772310733795166</v>
+        <v>0.7044999599456787</v>
       </c>
       <c r="D22" t="n">
-        <v>210.617</v>
+        <v>172.775</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6787619590759277</v>
+        <v>0.7060599327087402</v>
       </c>
       <c r="D23" t="n">
-        <v>956.847</v>
+        <v>579.85</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.466208934783936</v>
+        <v>1.462352991104126</v>
       </c>
       <c r="D24" t="n">
-        <v>260.788</v>
+        <v>222.872</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.442739963531494</v>
+        <v>1.516859769821167</v>
       </c>
       <c r="D25" t="n">
-        <v>1014.312</v>
+        <v>637.3150000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8547811508178711</v>
+        <v>0.8536660671234131</v>
       </c>
       <c r="D2" t="n">
-        <v>123.639</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -1337,13 +1337,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8252580165863037</v>
+        <v>0.8431830406188965</v>
       </c>
       <c r="D3" t="n">
-        <v>123.639</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9811758995056152</v>
+        <v>1.146604061126709</v>
       </c>
       <c r="D4" t="n">
-        <v>124.472</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9940249919891357</v>
+        <v>1.047921895980835</v>
       </c>
       <c r="D5" t="n">
-        <v>124.472</v>
+        <v>117.046</v>
       </c>
     </row>
     <row r="6">
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6671352386474609</v>
+        <v>0.7353558540344238</v>
       </c>
       <c r="D6" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -1404,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6734049320220947</v>
+        <v>0.7136001586914062</v>
       </c>
       <c r="D7" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6395950317382812</v>
+        <v>0.6642558574676514</v>
       </c>
       <c r="D8" t="n">
-        <v>121.02</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8011369705200195</v>
+        <v>0.6589429378509521</v>
       </c>
       <c r="D9" t="n">
-        <v>121.02</v>
+        <v>113.594</v>
       </c>
     </row>
     <row r="10">
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6718237400054932</v>
+        <v>0.715613842010498</v>
       </c>
       <c r="D10" t="n">
-        <v>209.883</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6958549022674561</v>
+        <v>0.6695330142974854</v>
       </c>
       <c r="D11" t="n">
-        <v>249.784</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -1484,10 +1484,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.235836029052734</v>
+        <v>1.396732807159424</v>
       </c>
       <c r="D12" t="n">
-        <v>254.95</v>
+        <v>220.64</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.398936033248901</v>
+        <v>1.37909722328186</v>
       </c>
       <c r="D13" t="n">
-        <v>307.408</v>
+        <v>251.595</v>
       </c>
     </row>
     <row r="14">
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7821481227874756</v>
+        <v>0.8499250411987305</v>
       </c>
       <c r="D14" t="n">
-        <v>125.334</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="15">
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9549412727355957</v>
+        <v>0.8663489818572998</v>
       </c>
       <c r="D15" t="n">
-        <v>125.334</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.017271757125854</v>
+        <v>1.070927143096924</v>
       </c>
       <c r="D16" t="n">
-        <v>180.576</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="17">
@@ -1564,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9524781703948975</v>
+        <v>1.048230886459351</v>
       </c>
       <c r="D17" t="n">
-        <v>124.49</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -1580,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6599259376525879</v>
+        <v>0.7288682460784912</v>
       </c>
       <c r="D18" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.700139045715332</v>
+        <v>0.6988320350646973</v>
       </c>
       <c r="D19" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8173980712890625</v>
+        <v>0.640887975692749</v>
       </c>
       <c r="D20" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -1628,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6655139923095703</v>
+        <v>0.6796040534973145</v>
       </c>
       <c r="D21" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6722538471221924</v>
+        <v>0.6903910636901855</v>
       </c>
       <c r="D22" t="n">
-        <v>210.617</v>
+        <v>172.775</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.678062915802002</v>
+        <v>0.7056000232696533</v>
       </c>
       <c r="D23" t="n">
-        <v>956.847</v>
+        <v>579.85</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.481053113937378</v>
+        <v>1.522725820541382</v>
       </c>
       <c r="D24" t="n">
-        <v>260.788</v>
+        <v>222.872</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.568669319152832</v>
+        <v>1.529097080230713</v>
       </c>
       <c r="D25" t="n">
-        <v>1014.312</v>
+        <v>637.3150000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7955641746520996</v>
+        <v>0.8417181968688965</v>
       </c>
       <c r="D2" t="n">
-        <v>123.639</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7909057140350342</v>
+        <v>0.864675760269165</v>
       </c>
       <c r="D3" t="n">
-        <v>123.639</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9998672008514404</v>
+        <v>1.060992956161499</v>
       </c>
       <c r="D4" t="n">
-        <v>124.472</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.089897871017456</v>
+        <v>1.070204973220825</v>
       </c>
       <c r="D5" t="n">
-        <v>180.558</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6736922264099121</v>
+        <v>0.6882181167602539</v>
       </c>
       <c r="D6" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6908988952636719</v>
+        <v>0.7037110328674316</v>
       </c>
       <c r="D7" t="n">
-        <v>123.181</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6414778232574463</v>
+        <v>0.6386048793792725</v>
       </c>
       <c r="D8" t="n">
-        <v>121.02</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6414620876312256</v>
+        <v>0.7071528434753418</v>
       </c>
       <c r="D9" t="n">
-        <v>121.02</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6795673370361328</v>
+        <v>0.6674199104309082</v>
       </c>
       <c r="D10" t="n">
-        <v>209.883</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6677639484405518</v>
+        <v>0.6913130283355713</v>
       </c>
       <c r="D11" t="n">
-        <v>249.784</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.424771070480347</v>
+        <v>1.465320825576782</v>
       </c>
       <c r="D12" t="n">
-        <v>254.95</v>
+        <v>220.64</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.469170093536377</v>
+        <v>1.359113931655884</v>
       </c>
       <c r="D13" t="n">
-        <v>307.408</v>
+        <v>252.013</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7842569351196289</v>
+        <v>0.8453378677368164</v>
       </c>
       <c r="D14" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -1954,13 +1954,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.813633918762207</v>
+        <v>0.8521697521209717</v>
       </c>
       <c r="D15" t="n">
-        <v>181.42</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000050067901611</v>
+        <v>1.059079170227051</v>
       </c>
       <c r="D16" t="n">
-        <v>180.576</v>
+        <v>173.15</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.077577829360962</v>
+        <v>1.080477237701416</v>
       </c>
       <c r="D17" t="n">
-        <v>124.49</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6977930068969727</v>
+        <v>0.6788229942321777</v>
       </c>
       <c r="D18" t="n">
-        <v>121.882</v>
+        <v>115.953</v>
       </c>
     </row>
     <row r="19">
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6927533149719238</v>
+        <v>0.681649923324585</v>
       </c>
       <c r="D19" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -2037,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6887831687927246</v>
+        <v>0.6500668525695801</v>
       </c>
       <c r="D20" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6345009803771973</v>
+        <v>0.6442248821258545</v>
       </c>
       <c r="D21" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6837611198425293</v>
+        <v>0.6998720169067383</v>
       </c>
       <c r="D22" t="n">
-        <v>210.617</v>
+        <v>171.278</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6747777462005615</v>
+        <v>0.7052381038665771</v>
       </c>
       <c r="D23" t="n">
-        <v>956.847</v>
+        <v>579.85</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.44123387336731</v>
+        <v>1.423163890838623</v>
       </c>
       <c r="D24" t="n">
-        <v>260.788</v>
+        <v>222.872</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.306882858276367</v>
+        <v>1.502127170562744</v>
       </c>
       <c r="D25" t="n">
-        <v>1014.312</v>
+        <v>774.396</v>
       </c>
     </row>
   </sheetData>
@@ -2171,13 +2171,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7703268527984619</v>
+        <v>0.848884105682373</v>
       </c>
       <c r="D2" t="n">
-        <v>125.136</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8325619697570801</v>
+        <v>0.8469069004058838</v>
       </c>
       <c r="D3" t="n">
-        <v>100.204</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9448361396789551</v>
+        <v>1.06288480758667</v>
       </c>
       <c r="D4" t="n">
-        <v>124.472</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="5">
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9635391235351562</v>
+        <v>1.10704517364502</v>
       </c>
       <c r="D5" t="n">
-        <v>124.472</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="6">
@@ -2238,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6768720149993896</v>
+        <v>0.6841940879821777</v>
       </c>
       <c r="D6" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6587882041931152</v>
+        <v>0.7983486652374268</v>
       </c>
       <c r="D7" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -2270,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6395800113677979</v>
+        <v>0.6590719223022461</v>
       </c>
       <c r="D8" t="n">
-        <v>121.073</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7613282203674316</v>
+        <v>0.6676757335662842</v>
       </c>
       <c r="D9" t="n">
-        <v>121.02</v>
+        <v>115.509</v>
       </c>
     </row>
     <row r="10">
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6930670738220215</v>
+        <v>0.6923398971557617</v>
       </c>
       <c r="D10" t="n">
-        <v>209.883</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6859650611877441</v>
+        <v>0.6683981418609619</v>
       </c>
       <c r="D11" t="n">
-        <v>226.349</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -2334,10 +2334,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.363997936248779</v>
+        <v>1.42511510848999</v>
       </c>
       <c r="D12" t="n">
-        <v>254.95</v>
+        <v>221.058</v>
       </c>
     </row>
     <row r="13">
@@ -2350,10 +2350,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.385502099990845</v>
+        <v>1.529518127441406</v>
       </c>
       <c r="D13" t="n">
-        <v>307.408</v>
+        <v>251.595</v>
       </c>
     </row>
     <row r="14">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7992250919342041</v>
+        <v>0.839677095413208</v>
       </c>
       <c r="D14" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -2382,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8017280101776123</v>
+        <v>0.8556873798370361</v>
       </c>
       <c r="D15" t="n">
-        <v>123.837</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="16">
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.088169813156128</v>
+        <v>1.071181058883667</v>
       </c>
       <c r="D16" t="n">
-        <v>124.49</v>
+        <v>117.064</v>
       </c>
     </row>
     <row r="17">
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9853842258453369</v>
+        <v>1.056924343109131</v>
       </c>
       <c r="D17" t="n">
-        <v>124.49</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="18">
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6709098815917969</v>
+        <v>0.6961641311645508</v>
       </c>
       <c r="D18" t="n">
-        <v>123.379</v>
+        <v>116.371</v>
       </c>
     </row>
     <row r="19">
@@ -2446,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6568281650543213</v>
+        <v>0.7094640731811523</v>
       </c>
       <c r="D19" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6264791488647461</v>
+        <v>0.6377890110015869</v>
       </c>
       <c r="D20" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6611220836639404</v>
+        <v>0.6782879829406738</v>
       </c>
       <c r="D21" t="n">
-        <v>121.038</v>
+        <v>113.612</v>
       </c>
     </row>
     <row r="22">
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7008106708526611</v>
+        <v>0.684959888458252</v>
       </c>
       <c r="D22" t="n">
-        <v>210.617</v>
+        <v>170.86</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6978549957275391</v>
+        <v>0.7026920318603516</v>
       </c>
       <c r="D23" t="n">
-        <v>956.847</v>
+        <v>579.432</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.257794618606567</v>
+        <v>1.321131944656372</v>
       </c>
       <c r="D24" t="n">
-        <v>260.788</v>
+        <v>222.872</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.503580808639526</v>
+        <v>1.526490211486816</v>
       </c>
       <c r="D25" t="n">
-        <v>1014.312</v>
+        <v>636.897</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8122408390045166</v>
+        <v>0.8603010177612305</v>
       </c>
       <c r="D2" t="n">
-        <v>123.639</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7922589778900146</v>
+        <v>0.8752079010009766</v>
       </c>
       <c r="D3" t="n">
-        <v>123.639</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -2631,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9913399219512939</v>
+        <v>1.059255123138428</v>
       </c>
       <c r="D4" t="n">
-        <v>124.472</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -2647,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.049600124359131</v>
+        <v>1.084520101547241</v>
       </c>
       <c r="D5" t="n">
-        <v>180.558</v>
+        <v>117.046</v>
       </c>
     </row>
     <row r="6">
@@ -2663,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7564809322357178</v>
+        <v>0.6842830181121826</v>
       </c>
       <c r="D6" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.676131010055542</v>
+        <v>0.6886439323425293</v>
       </c>
       <c r="D7" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -2695,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.628715991973877</v>
+        <v>0.6506152153015137</v>
       </c>
       <c r="D8" t="n">
-        <v>121.02</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -2711,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6320059299468994</v>
+        <v>0.6570761203765869</v>
       </c>
       <c r="D9" t="n">
-        <v>121.02</v>
+        <v>115.509</v>
       </c>
     </row>
     <row r="10">
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6312289237976074</v>
+        <v>0.6887688636779785</v>
       </c>
       <c r="D10" t="n">
-        <v>209.883</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6289949417114258</v>
+        <v>0.8176040649414062</v>
       </c>
       <c r="D11" t="n">
-        <v>249.784</v>
+        <v>195.886</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.529214859008789</v>
+        <v>1.535262107849121</v>
       </c>
       <c r="D12" t="n">
-        <v>198.97</v>
+        <v>221.058</v>
       </c>
     </row>
     <row r="13">
@@ -2775,10 +2775,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.348098993301392</v>
+        <v>1.318146705627441</v>
       </c>
       <c r="D13" t="n">
-        <v>307.408</v>
+        <v>251.595</v>
       </c>
     </row>
     <row r="14">
@@ -2791,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7865850925445557</v>
+        <v>0.8386878967285156</v>
       </c>
       <c r="D14" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -2804,13 +2804,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7925069332122803</v>
+        <v>0.865027904510498</v>
       </c>
       <c r="D15" t="n">
-        <v>125.334</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9845619201660156</v>
+        <v>1.04640007019043</v>
       </c>
       <c r="D16" t="n">
-        <v>124.49</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="17">
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.004498958587646</v>
+        <v>1.074761867523193</v>
       </c>
       <c r="D17" t="n">
-        <v>124.49</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="18">
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8536570072174072</v>
+        <v>0.7538149356842041</v>
       </c>
       <c r="D18" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.672213077545166</v>
+        <v>0.7048242092132568</v>
       </c>
       <c r="D19" t="n">
-        <v>121.882</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="20">
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6431679725646973</v>
+        <v>0.6921169757843018</v>
       </c>
       <c r="D20" t="n">
-        <v>121.038</v>
+        <v>115.527</v>
       </c>
     </row>
     <row r="21">
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7140018939971924</v>
+        <v>0.6556968688964844</v>
       </c>
       <c r="D21" t="n">
-        <v>122.535</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6578938961029053</v>
+        <v>0.6659269332885742</v>
       </c>
       <c r="D22" t="n">
-        <v>212.114</v>
+        <v>170.86</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6776769161224365</v>
+        <v>0.6843581199645996</v>
       </c>
       <c r="D23" t="n">
-        <v>956.847</v>
+        <v>579.85</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.622224092483521</v>
+        <v>1.36179780960083</v>
       </c>
       <c r="D24" t="n">
-        <v>260.788</v>
+        <v>222.872</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.561027050018311</v>
+        <v>1.580061197280884</v>
       </c>
       <c r="D25" t="n">
-        <v>1014.312</v>
+        <v>636.897</v>
       </c>
     </row>
   </sheetData>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7697901725769043</v>
+        <v>0.868955135345459</v>
       </c>
       <c r="D2" t="n">
-        <v>123.639</v>
+        <v>116.213</v>
       </c>
     </row>
     <row r="3">
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8720519542694092</v>
+        <v>0.8484771251678467</v>
       </c>
       <c r="D3" t="n">
-        <v>125.136</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.98319411277771</v>
+        <v>1.054878950119019</v>
       </c>
       <c r="D4" t="n">
-        <v>124.472</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6928000450134277</v>
+        <v>1.050403833389282</v>
       </c>
       <c r="D5" t="n">
-        <v>40.29</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7288808822631836</v>
+        <v>0.7117390632629395</v>
       </c>
       <c r="D6" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -3104,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6794300079345703</v>
+        <v>0.7689347267150879</v>
       </c>
       <c r="D7" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6596269607543945</v>
+        <v>0.6477150917053223</v>
       </c>
       <c r="D8" t="n">
-        <v>121.02</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -3136,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7689940929412842</v>
+        <v>0.6381289958953857</v>
       </c>
       <c r="D9" t="n">
-        <v>121.02</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="10">
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6915819644927979</v>
+        <v>0.6856999397277832</v>
       </c>
       <c r="D10" t="n">
-        <v>209.883</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6947052478790283</v>
+        <v>0.6843311786651611</v>
       </c>
       <c r="D11" t="n">
-        <v>249.784</v>
+        <v>193.971</v>
       </c>
     </row>
     <row r="12">
@@ -3184,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.262824296951294</v>
+        <v>1.400315999984741</v>
       </c>
       <c r="D12" t="n">
-        <v>198.864</v>
+        <v>221.058</v>
       </c>
     </row>
     <row r="13">
@@ -3200,10 +3200,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.459445953369141</v>
+        <v>1.411600112915039</v>
       </c>
       <c r="D13" t="n">
-        <v>307.408</v>
+        <v>252.013</v>
       </c>
     </row>
     <row r="14">
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.776033878326416</v>
+        <v>0.9486179351806641</v>
       </c>
       <c r="D14" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9255409240722656</v>
+        <v>0.8860259056091309</v>
       </c>
       <c r="D15" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -3248,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9969768524169922</v>
+        <v>1.083473920822144</v>
       </c>
       <c r="D16" t="n">
-        <v>124.596</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="17">
@@ -3264,10 +3264,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.943580150604248</v>
+        <v>1.110759973526001</v>
       </c>
       <c r="D17" t="n">
-        <v>180.576</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7974588871002197</v>
+        <v>0.8096318244934082</v>
       </c>
       <c r="D18" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -3296,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6919107437133789</v>
+        <v>0.7119359970092773</v>
       </c>
       <c r="D19" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -3312,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6644339561462402</v>
+        <v>0.6640920639038086</v>
       </c>
       <c r="D20" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6453728675842285</v>
+        <v>0.6298561096191406</v>
       </c>
       <c r="D21" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7142999172210693</v>
+        <v>0.6865746974945068</v>
       </c>
       <c r="D22" t="n">
-        <v>210.617</v>
+        <v>171.278</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6721110343933105</v>
+        <v>0.7977972030639648</v>
       </c>
       <c r="D23" t="n">
-        <v>956.847</v>
+        <v>717.349</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.406387090682983</v>
+        <v>1.365047931671143</v>
       </c>
       <c r="D24" t="n">
-        <v>260.788</v>
+        <v>222.872</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.621790885925293</v>
+        <v>1.447237014770508</v>
       </c>
       <c r="D25" t="n">
-        <v>1016.477</v>
+        <v>637.3150000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3449,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7805798053741455</v>
+        <v>0.858640193939209</v>
       </c>
       <c r="D2" t="n">
-        <v>125.136</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -3465,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7688357830047607</v>
+        <v>0.8520760536193848</v>
       </c>
       <c r="D3" t="n">
-        <v>125.136</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -3481,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9884579181671143</v>
+        <v>1.064779043197632</v>
       </c>
       <c r="D4" t="n">
-        <v>124.472</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996187686920166</v>
+        <v>1.106935977935791</v>
       </c>
       <c r="D5" t="n">
-        <v>124.472</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -3513,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6956281661987305</v>
+        <v>0.7903468608856201</v>
       </c>
       <c r="D6" t="n">
-        <v>121.684</v>
+        <v>116.173</v>
       </c>
     </row>
     <row r="7">
@@ -3529,10 +3529,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6779251098632812</v>
+        <v>0.6952242851257324</v>
       </c>
       <c r="D7" t="n">
-        <v>123.181</v>
+        <v>114.258</v>
       </c>
     </row>
     <row r="8">
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3477959632873535</v>
+        <v>0.6641302108764648</v>
       </c>
       <c r="D8" t="n">
-        <v>32.987</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -3561,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6344959735870361</v>
+        <v>0.6645047664642334</v>
       </c>
       <c r="D9" t="n">
-        <v>121.02</v>
+        <v>115.509</v>
       </c>
     </row>
     <row r="10">
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7765119075775146</v>
+        <v>0.684581995010376</v>
       </c>
       <c r="D10" t="n">
-        <v>211.38</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6729259490966797</v>
+        <v>0.6969821453094482</v>
       </c>
       <c r="D11" t="n">
-        <v>249.784</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -3609,10 +3609,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.418637037277222</v>
+        <v>1.348942279815674</v>
       </c>
       <c r="D12" t="n">
-        <v>254.95</v>
+        <v>221.058</v>
       </c>
     </row>
     <row r="13">
@@ -3625,10 +3625,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.430509805679321</v>
+        <v>1.517273902893066</v>
       </c>
       <c r="D13" t="n">
-        <v>307.408</v>
+        <v>252.013</v>
       </c>
     </row>
     <row r="14">
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7713959217071533</v>
+        <v>0.8510668277740479</v>
       </c>
       <c r="D14" t="n">
-        <v>125.334</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -3654,13 +3654,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7744431495666504</v>
+        <v>0.8528780937194824</v>
       </c>
       <c r="D15" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9854810237884521</v>
+        <v>1.065636873245239</v>
       </c>
       <c r="D16" t="n">
-        <v>124.49</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="17">
@@ -3689,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.015344142913818</v>
+        <v>1.04223108291626</v>
       </c>
       <c r="D17" t="n">
-        <v>180.576</v>
+        <v>117.064</v>
       </c>
     </row>
     <row r="18">
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6944789886474609</v>
+        <v>0.6859939098358154</v>
       </c>
       <c r="D18" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8031380176544189</v>
+        <v>0.6994550228118896</v>
       </c>
       <c r="D19" t="n">
-        <v>123.379</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="20">
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6386079788208008</v>
+        <v>0.7506389617919922</v>
       </c>
       <c r="D20" t="n">
-        <v>121.038</v>
+        <v>115.527</v>
       </c>
     </row>
     <row r="21">
@@ -3753,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6331970691680908</v>
+        <v>0.6704058647155762</v>
       </c>
       <c r="D21" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7084050178527832</v>
+        <v>0.67563796043396</v>
       </c>
       <c r="D22" t="n">
-        <v>210.617</v>
+        <v>171.278</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6705560684204102</v>
+        <v>0.6853528022766113</v>
       </c>
       <c r="D23" t="n">
-        <v>956.847</v>
+        <v>579.432</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.198220014572144</v>
+        <v>1.320734977722168</v>
       </c>
       <c r="D24" t="n">
-        <v>204.702</v>
+        <v>222.454</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.369959115982056</v>
+        <v>1.515341758728027</v>
       </c>
       <c r="D25" t="n">
-        <v>1014.312</v>
+        <v>637.3150000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +3874,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7677841186523438</v>
+        <v>0.9501991271972656</v>
       </c>
       <c r="D2" t="n">
-        <v>123.639</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -3890,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.788966178894043</v>
+        <v>0.833143949508667</v>
       </c>
       <c r="D3" t="n">
-        <v>123.639</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="4">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.98262619972229</v>
+        <v>1.054430961608887</v>
       </c>
       <c r="D4" t="n">
-        <v>124.472</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -3922,10 +3922,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.000058889389038</v>
+        <v>1.060538768768311</v>
       </c>
       <c r="D5" t="n">
-        <v>124.472</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="6">
@@ -3938,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6622309684753418</v>
+        <v>0.6926820278167725</v>
       </c>
       <c r="D6" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6981499195098877</v>
+        <v>0.7130739688873291</v>
       </c>
       <c r="D7" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -3970,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6086671352386475</v>
+        <v>0.6336922645568848</v>
       </c>
       <c r="D8" t="n">
-        <v>121.02</v>
+        <v>113.594</v>
       </c>
     </row>
     <row r="9">
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6373188495635986</v>
+        <v>0.6310007572174072</v>
       </c>
       <c r="D9" t="n">
-        <v>121.02</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="10">
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6424758434295654</v>
+        <v>0.6680240631103516</v>
       </c>
       <c r="D10" t="n">
-        <v>209.883</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6847689151763916</v>
+        <v>0.6882190704345703</v>
       </c>
       <c r="D11" t="n">
-        <v>249.784</v>
+        <v>193.971</v>
       </c>
     </row>
     <row r="12">
@@ -4034,10 +4034,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.367953777313232</v>
+        <v>1.497902870178223</v>
       </c>
       <c r="D12" t="n">
-        <v>254.95</v>
+        <v>221.058</v>
       </c>
     </row>
     <row r="13">
@@ -4050,10 +4050,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.486055850982666</v>
+        <v>1.377414226531982</v>
       </c>
       <c r="D13" t="n">
-        <v>307.408</v>
+        <v>251.595</v>
       </c>
     </row>
     <row r="14">
@@ -4066,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8346188068389893</v>
+        <v>0.848275899887085</v>
       </c>
       <c r="D14" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -4082,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7876541614532471</v>
+        <v>0.8503851890563965</v>
       </c>
       <c r="D15" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.012195825576782</v>
+        <v>1.259517908096313</v>
       </c>
       <c r="D16" t="n">
-        <v>124.49</v>
+        <v>173.15</v>
       </c>
     </row>
     <row r="17">
@@ -4114,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9684910774230957</v>
+        <v>1.08221697807312</v>
       </c>
       <c r="D17" t="n">
-        <v>124.49</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="18">
@@ -4130,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6628820896148682</v>
+        <v>0.7065889835357666</v>
       </c>
       <c r="D18" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7040469646453857</v>
+        <v>0.7273149490356445</v>
       </c>
       <c r="D19" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -4162,10 +4162,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6188967227935791</v>
+        <v>0.6612801551818848</v>
       </c>
       <c r="D20" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -4178,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5986440181732178</v>
+        <v>0.6500101089477539</v>
       </c>
       <c r="D21" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6373622417449951</v>
+        <v>0.6731162071228027</v>
       </c>
       <c r="D22" t="n">
-        <v>210.617</v>
+        <v>170.86</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7777068614959717</v>
+        <v>0.7083919048309326</v>
       </c>
       <c r="D23" t="n">
-        <v>956.847</v>
+        <v>579.85</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.335693836212158</v>
+        <v>1.369500160217285</v>
       </c>
       <c r="D24" t="n">
-        <v>260.788</v>
+        <v>222.872</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.426674842834473</v>
+        <v>1.415293216705322</v>
       </c>
       <c r="D25" t="n">
-        <v>1014.312</v>
+        <v>636.897</v>
       </c>
     </row>
   </sheetData>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8609509468078613</v>
+        <v>0.8315560817718506</v>
       </c>
       <c r="D2" t="n">
-        <v>123.639</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -4315,10 +4315,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7831201553344727</v>
+        <v>0.8748688697814941</v>
       </c>
       <c r="D3" t="n">
-        <v>123.639</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -4331,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.995941162109375</v>
+        <v>1.083435773849487</v>
       </c>
       <c r="D4" t="n">
-        <v>124.472</v>
+        <v>173.132</v>
       </c>
     </row>
     <row r="5">
@@ -4347,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.008875131607056</v>
+        <v>1.062530994415283</v>
       </c>
       <c r="D5" t="n">
-        <v>180.558</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -4363,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8644058704376221</v>
+        <v>0.6916458606719971</v>
       </c>
       <c r="D6" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.714137077331543</v>
+        <v>0.7210140228271484</v>
       </c>
       <c r="D7" t="n">
-        <v>121.684</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -4395,10 +4395,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6378130912780762</v>
+        <v>0.6625909805297852</v>
       </c>
       <c r="D8" t="n">
-        <v>115.672</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6408851146697998</v>
+        <v>0.6576399803161621</v>
       </c>
       <c r="D9" t="n">
-        <v>121.02</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="10">
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6842498779296875</v>
+        <v>0.6773970127105713</v>
       </c>
       <c r="D10" t="n">
-        <v>209.989</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7720358371734619</v>
+        <v>0.6876893043518066</v>
       </c>
       <c r="D11" t="n">
-        <v>251.281</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -4459,10 +4459,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.4343421459198</v>
+        <v>1.370092153549194</v>
       </c>
       <c r="D12" t="n">
-        <v>254.95</v>
+        <v>220.746</v>
       </c>
     </row>
     <row r="13">
@@ -4475,10 +4475,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.484279632568359</v>
+        <v>1.312222003936768</v>
       </c>
       <c r="D13" t="n">
-        <v>307.408</v>
+        <v>252.013</v>
       </c>
     </row>
     <row r="14">
@@ -4491,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7762050628662109</v>
+        <v>1.050091028213501</v>
       </c>
       <c r="D14" t="n">
-        <v>123.837</v>
+        <v>174.412</v>
       </c>
     </row>
     <row r="15">
@@ -4507,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7968029975891113</v>
+        <v>0.8956539630889893</v>
       </c>
       <c r="D15" t="n">
-        <v>123.837</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9760801792144775</v>
+        <v>1.053139925003052</v>
       </c>
       <c r="D16" t="n">
-        <v>124.49</v>
+        <v>117.064</v>
       </c>
     </row>
     <row r="17">
@@ -4539,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.01983904838562</v>
+        <v>1.043073892593384</v>
       </c>
       <c r="D17" t="n">
-        <v>180.576</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -4555,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6316490173339844</v>
+        <v>0.7421548366546631</v>
       </c>
       <c r="D18" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -4571,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7030489444732666</v>
+        <v>0.6797828674316406</v>
       </c>
       <c r="D19" t="n">
-        <v>121.882</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -4587,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6380271911621094</v>
+        <v>0.640977144241333</v>
       </c>
       <c r="D20" t="n">
-        <v>121.038</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6539802551269531</v>
+        <v>0.6838181018829346</v>
       </c>
       <c r="D21" t="n">
-        <v>121.038</v>
+        <v>113.612</v>
       </c>
     </row>
     <row r="22">
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6666297912597656</v>
+        <v>0.6504020690917969</v>
       </c>
       <c r="D22" t="n">
-        <v>210.617</v>
+        <v>171.278</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8561460971832275</v>
+        <v>0.7840371131896973</v>
       </c>
       <c r="D23" t="n">
-        <v>956.847</v>
+        <v>579.85</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.326380968093872</v>
+        <v>1.588412046432495</v>
       </c>
       <c r="D24" t="n">
-        <v>260.788</v>
+        <v>222.454</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.356574058532715</v>
+        <v>1.435760021209717</v>
       </c>
       <c r="D25" t="n">
-        <v>958.226</v>
+        <v>637.3150000000001</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C2" t="n">
-        <v>2.371938228607178</v>
+        <v>2.778191804885864</v>
       </c>
       <c r="D2" t="n">
-        <v>545.506</v>
+        <v>540.1799999999999</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C3" t="n">
-        <v>2.353026151657104</v>
+        <v>2.829072237014771</v>
       </c>
       <c r="D3" t="n">
-        <v>545.506</v>
+        <v>540.598</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.519361972808838</v>
+        <v>2.878378868103027</v>
       </c>
       <c r="D4" t="n">
-        <v>544.842</v>
+        <v>539.516</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.576639890670776</v>
+        <v>2.896505117416382</v>
       </c>
       <c r="D5" t="n">
-        <v>544.842</v>
+        <v>539.934</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7031741142272949</v>
+        <v>0.6857481002807617</v>
       </c>
       <c r="D6" t="n">
-        <v>119.584</v>
+        <v>116.173</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6779780387878418</v>
+        <v>0.7029488086700439</v>
       </c>
       <c r="D7" t="n">
-        <v>119.584</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6922900676727295</v>
+        <v>0.6647076606750488</v>
       </c>
       <c r="D8" t="n">
-        <v>118.92</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8216969966888428</v>
+        <v>0.6732206344604492</v>
       </c>
       <c r="D9" t="n">
-        <v>118.92</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.450206995010376</v>
+        <v>1.642297983169556</v>
       </c>
       <c r="D10" t="n">
-        <v>269.027</v>
+        <v>274.349</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.419539928436279</v>
+        <v>1.597189903259277</v>
       </c>
       <c r="D11" t="n">
-        <v>306.763</v>
+        <v>314.25</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.194422006607056</v>
+        <v>2.510617256164551</v>
       </c>
       <c r="D12" t="n">
-        <v>266.741</v>
+        <v>277.247</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.286364078521729</v>
+        <v>2.424256086349487</v>
       </c>
       <c r="D13" t="n">
-        <v>319.199</v>
+        <v>329.705</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C14" t="n">
-        <v>2.316632032394409</v>
+        <v>2.810793161392212</v>
       </c>
       <c r="D14" t="n">
-        <v>545.704</v>
+        <v>540.796</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>9.090909090909093</v>
       </c>
       <c r="C15" t="n">
-        <v>2.486576080322266</v>
+        <v>2.790719270706177</v>
       </c>
       <c r="D15" t="n">
-        <v>545.704</v>
+        <v>540.796</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.520114898681641</v>
+        <v>2.894689083099365</v>
       </c>
       <c r="D16" t="n">
-        <v>544.86</v>
+        <v>539.952</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.540316820144653</v>
+        <v>2.874940156936646</v>
       </c>
       <c r="D17" t="n">
-        <v>544.86</v>
+        <v>539.952</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.688413143157959</v>
+        <v>0.7331869602203369</v>
       </c>
       <c r="D18" t="n">
-        <v>119.782</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7378060817718506</v>
+        <v>0.7021207809448242</v>
       </c>
       <c r="D19" t="n">
-        <v>119.782</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6612768173217773</v>
+        <v>0.6590518951416016</v>
       </c>
       <c r="D20" t="n">
-        <v>118.938</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.657167911529541</v>
+        <v>0.745089054107666</v>
       </c>
       <c r="D21" t="n">
-        <v>118.938</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.515900850296021</v>
+        <v>1.7001051902771</v>
       </c>
       <c r="D22" t="n">
-        <v>279.901</v>
+        <v>274.575</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.43884015083313</v>
+        <v>1.640960931777954</v>
       </c>
       <c r="D23" t="n">
-        <v>1087.624</v>
+        <v>1092.528</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.201502799987793</v>
+        <v>2.65537691116333</v>
       </c>
       <c r="D24" t="n">
-        <v>267.614</v>
+        <v>262.706</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.291365146636963</v>
+        <v>2.527768135070801</v>
       </c>
       <c r="D25" t="n">
-        <v>765.765</v>
+        <v>1097.936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.809148788452148</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.1799999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.653487920761108</v>
+      </c>
+      <c r="D3" t="n">
+        <v>119.206</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.893967866897583</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.516</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.856204986572266</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6762969493865967</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.258</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7686319351196289</v>
+      </c>
+      <c r="D7" t="n">
+        <v>116.173</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6584610939025879</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6741302013397217</v>
+      </c>
+      <c r="D9" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.645442008972168</v>
+      </c>
+      <c r="D10" t="n">
+        <v>273.931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.607093811035156</v>
+      </c>
+      <c r="D11" t="n">
+        <v>314.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.387687921524048</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277.247</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.655982732772827</v>
+      </c>
+      <c r="D13" t="n">
+        <v>329.705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.781784772872925</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.776905059814453</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.884215116500854</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.943439960479736</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.534</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6929030418395996</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8086650371551514</v>
+      </c>
+      <c r="D19" t="n">
+        <v>115.953</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6844620704650879</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.639333963394165</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.705603837966919</v>
+      </c>
+      <c r="D22" t="n">
+        <v>274.993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.663033962249756</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1092.528</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.473440885543823</v>
+      </c>
+      <c r="D24" t="n">
+        <v>262.706</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.546028852462769</v>
+      </c>
+      <c r="D25" t="n">
+        <v>745.443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.804805040359497</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.1799999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.812653064727783</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.930135726928711</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.874631881713867</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6993608474731445</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6904928684234619</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7468080520629883</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.67032790184021</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.669074296951294</v>
+      </c>
+      <c r="D10" t="n">
+        <v>289.763</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.580934762954712</v>
+      </c>
+      <c r="D11" t="n">
+        <v>314.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.331141948699951</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277.247</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.464519023895264</v>
+      </c>
+      <c r="D13" t="n">
+        <v>329.705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.757224321365356</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.797917127609253</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.902588844299316</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.856775760650635</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7088582515716553</v>
+      </c>
+      <c r="D18" t="n">
+        <v>116.371</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7493360042572021</v>
+      </c>
+      <c r="D19" t="n">
+        <v>115.953</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6627647876739502</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6645162105560303</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.693207025527954</v>
+      </c>
+      <c r="D22" t="n">
+        <v>274.993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.645748138427734</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1092.946</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.528696775436401</v>
+      </c>
+      <c r="D24" t="n">
+        <v>262.706</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.62082576751709</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1097.936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.790477275848389</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.797189950942993</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.886598110198975</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.90721607208252</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6812591552734375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6822001934051514</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6518421173095703</v>
+      </c>
+      <c r="D8" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6585779190063477</v>
+      </c>
+      <c r="D9" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.636508941650391</v>
+      </c>
+      <c r="D10" t="n">
+        <v>274.349</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.674116849899292</v>
+      </c>
+      <c r="D11" t="n">
+        <v>314.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.458497047424316</v>
+      </c>
+      <c r="D12" t="n">
+        <v>276.829</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.439617156982422</v>
+      </c>
+      <c r="D13" t="n">
+        <v>329.705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.767548084259033</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.760469913482666</v>
+      </c>
+      <c r="D15" t="n">
+        <v>178.073</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.886927843093872</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.986521005630493</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7137789726257324</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7549588680267334</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6471097469329834</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6781964302062988</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.711400032043457</v>
+      </c>
+      <c r="D22" t="n">
+        <v>274.993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.669873952865601</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1092.946</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.837544202804565</v>
+      </c>
+      <c r="D24" t="n">
+        <v>745.098</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.549411058425903</v>
+      </c>
+      <c r="D25" t="n">
+        <v>760.857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.787896871566772</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.1799999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.831908702850342</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.905830860137939</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.861498117446899</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6944069862365723</v>
+      </c>
+      <c r="D6" t="n">
+        <v>116.173</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7018501758575439</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.258</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6545579433441162</v>
+      </c>
+      <c r="D8" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6584498882293701</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.659067869186401</v>
+      </c>
+      <c r="D10" t="n">
+        <v>274.349</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.575745582580566</v>
+      </c>
+      <c r="D11" t="n">
+        <v>304.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.484009981155396</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277.247</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.282227277755737</v>
+      </c>
+      <c r="D13" t="n">
+        <v>247.02</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.796935796737671</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.760481834411621</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.910374164581299</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.910452842712402</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7002460956573486</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7026000022888184</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6511151790618896</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6533808708190918</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.706699132919312</v>
+      </c>
+      <c r="D22" t="n">
+        <v>274.993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.763765096664429</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1108.36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.697973251342773</v>
+      </c>
+      <c r="D24" t="n">
+        <v>599.785</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.557563066482544</v>
+      </c>
+      <c r="D25" t="n">
+        <v>760.857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.832060098648071</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.908450841903687</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.873065948486328</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.910940170288086</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7059190273284912</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6669139862060547</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6542961597442627</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.659066915512085</v>
+      </c>
+      <c r="D9" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.651585102081299</v>
+      </c>
+      <c r="D10" t="n">
+        <v>274.349</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.577433109283447</v>
+      </c>
+      <c r="D11" t="n">
+        <v>313.832</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.437427997589111</v>
+      </c>
+      <c r="D12" t="n">
+        <v>276.829</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.419746160507202</v>
+      </c>
+      <c r="D13" t="n">
+        <v>329.705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.81561279296875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.790053844451904</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.888854026794434</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.534</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.862588167190552</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.534</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7027630805969238</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6690640449523926</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.742002010345459</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6620569229125977</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.713085174560547</v>
+      </c>
+      <c r="D22" t="n">
+        <v>274.993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.648611068725586</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1092.528</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.593707084655762</v>
+      </c>
+      <c r="D24" t="n">
+        <v>262.706</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.577083110809326</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1097.936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.799467086791992</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.734011173248291</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.894940137863159</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.889896869659424</v>
+      </c>
+      <c r="D5" t="n">
+        <v>516.499</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6971759796142578</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.258</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7807488441467285</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6452679634094238</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6547791957855225</v>
+      </c>
+      <c r="D9" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.640295267105103</v>
+      </c>
+      <c r="D10" t="n">
+        <v>273.931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.613311052322388</v>
+      </c>
+      <c r="D11" t="n">
+        <v>304.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.41416597366333</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277.247</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.331675052642822</v>
+      </c>
+      <c r="D13" t="n">
+        <v>329.705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.828639984130859</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.778144121170044</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.89014196395874</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.865938901901245</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6899237632751465</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7838678359985352</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6625080108642578</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6502656936645508</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.716944217681885</v>
+      </c>
+      <c r="D22" t="n">
+        <v>274.993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.646286010742188</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1092.946</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.539124965667725</v>
+      </c>
+      <c r="D24" t="n">
+        <v>262.706</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.664137125015259</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1097.936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.797810792922974</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.881561040878296</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.1799999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.069057941436768</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.516</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.041150331497192</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7049999237060547</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7026240825653076</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6601788997650146</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6531531810760498</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.698533773422241</v>
+      </c>
+      <c r="D10" t="n">
+        <v>273.931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.715719938278198</v>
+      </c>
+      <c r="D11" t="n">
+        <v>313.832</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.695183992385864</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277.247</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.544373035430908</v>
+      </c>
+      <c r="D13" t="n">
+        <v>329.287</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.770601987838745</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.739190816879272</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.378</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.889924287796021</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.534</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.004760026931763</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6961257457733154</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.685823917388916</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6653211116790771</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6580469608306885</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.721223831176758</v>
+      </c>
+      <c r="D22" t="n">
+        <v>274.993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.667644262313843</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1092.946</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.375538110733032</v>
+      </c>
+      <c r="D24" t="n">
+        <v>262.706</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.630427837371826</v>
+      </c>
+      <c r="D25" t="n">
+        <v>760.439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.78832483291626</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.750779867172241</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.1799999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.876609802246094</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.896995782852173</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6748018264770508</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.258</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.707575798034668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6493163108825684</v>
+      </c>
+      <c r="D8" t="n">
+        <v>113.594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6402199268341064</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.646384000778198</v>
+      </c>
+      <c r="D10" t="n">
+        <v>274.349</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.598124027252197</v>
+      </c>
+      <c r="D11" t="n">
+        <v>313.832</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.509628772735596</v>
+      </c>
+      <c r="D12" t="n">
+        <v>276.829</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.659098863601685</v>
+      </c>
+      <c r="D13" t="n">
+        <v>329.705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.858499050140381</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.378</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.791195154190063</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.378</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.894360065460205</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.886456727981567</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.534</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7006897926330566</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7135601043701172</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.657555103302002</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6455309391021729</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113.612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.722380638122559</v>
+      </c>
+      <c r="D22" t="n">
+        <v>274.993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.663108110427856</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1082.716</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.45415210723877</v>
+      </c>
+      <c r="D24" t="n">
+        <v>262.288</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.433448076248169</v>
+      </c>
+      <c r="D25" t="n">
+        <v>760.857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.659949779510498</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.881010055541992</v>
+      </c>
+      <c r="D3" t="n">
+        <v>540.598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.030695915222168</v>
+      </c>
+      <c r="D4" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.890032291412354</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6868500709533691</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7070231437683105</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6341438293457031</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6654269695281982</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.653270959854126</v>
+      </c>
+      <c r="D10" t="n">
+        <v>289.763</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.586103916168213</v>
+      </c>
+      <c r="D11" t="n">
+        <v>314.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.395918130874634</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277.247</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.398100852966309</v>
+      </c>
+      <c r="D13" t="n">
+        <v>329.705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.358705282211304</v>
+      </c>
+      <c r="D14" t="n">
+        <v>540.796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.090909090909093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.833433151245117</v>
+      </c>
+      <c r="D15" t="n">
+        <v>540.378</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.891787052154541</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.870795011520386</v>
+      </c>
+      <c r="D17" t="n">
+        <v>539.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6941182613372803</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6744771003723145</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.456</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6685960292816162</v>
+      </c>
+      <c r="D20" t="n">
+        <v>113.612</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7551672458648682</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113.612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.725440979003906</v>
+      </c>
+      <c r="D22" t="n">
+        <v>274.575</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.643676996231079</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1092.528</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.448271751403809</v>
+      </c>
+      <c r="D24" t="n">
+        <v>262.706</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.551772117614746</v>
+      </c>
+      <c r="D25" t="n">
+        <v>760.439</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8026392459869385</v>
+        <v>0.909121036529541</v>
       </c>
       <c r="D2" t="n">
-        <v>116.213</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7848849296569824</v>
+        <v>0.8387351036071777</v>
       </c>
       <c r="D3" t="n">
         <v>117.71</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.005140066146851</v>
+        <v>1.076367855072021</v>
       </c>
       <c r="D4" t="n">
         <v>117.464</v>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.007379055023193</v>
+        <v>1.064631938934326</v>
       </c>
       <c r="D5" t="n">
-        <v>117.464</v>
+        <v>117.046</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6966180801391602</v>
+        <v>0.7027902603149414</v>
       </c>
       <c r="D6" t="n">
-        <v>116.173</v>
+        <v>114.258</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7805619239807129</v>
+        <v>0.6764249801635742</v>
       </c>
       <c r="D7" t="n">
-        <v>114.676</v>
+        <v>90.82299999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6699337959289551</v>
+        <v>0.6659371852874756</v>
       </c>
       <c r="D8" t="n">
-        <v>114.012</v>
+        <v>115.509</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7552459239959717</v>
+        <v>0.6680467128753662</v>
       </c>
       <c r="D9" t="n">
-        <v>113.594</v>
+        <v>115.509</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6987569332122803</v>
+        <v>0.693809986114502</v>
       </c>
       <c r="D10" t="n">
         <v>202.875</v>
@@ -618,7 +618,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7164359092712402</v>
+        <v>0.7130520343780518</v>
       </c>
       <c r="D11" t="n">
         <v>242.776</v>
@@ -634,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.391501903533936</v>
+        <v>1.387980937957764</v>
       </c>
       <c r="D12" t="n">
-        <v>247.524</v>
+        <v>247.942</v>
       </c>
     </row>
     <row r="13">
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.398847103118896</v>
+        <v>1.451498031616211</v>
       </c>
       <c r="D13" t="n">
         <v>300.4</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7800021171569824</v>
+        <v>0.8557329177856445</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="15">
@@ -682,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8655869960784912</v>
+        <v>0.8670518398284912</v>
       </c>
       <c r="D15" t="n">
-        <v>118.326</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="16">
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.027151107788086</v>
+        <v>1.090676069259644</v>
       </c>
       <c r="D16" t="n">
-        <v>117.482</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.054347991943359</v>
+        <v>1.065258979797363</v>
       </c>
       <c r="D17" t="n">
-        <v>173.568</v>
+        <v>117.064</v>
       </c>
     </row>
     <row r="18">
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6930279731750488</v>
+        <v>0.7272529602050781</v>
       </c>
       <c r="D18" t="n">
         <v>114.874</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7080860137939453</v>
+        <v>0.7717509269714355</v>
       </c>
       <c r="D19" t="n">
-        <v>114.456</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -762,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6627750396728516</v>
+        <v>0.6587638854980469</v>
       </c>
       <c r="D20" t="n">
-        <v>113.612</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6762120723724365</v>
+        <v>0.6608870029449463</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -794,7 +794,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7088539600372314</v>
+        <v>0.7010498046875</v>
       </c>
       <c r="D22" t="n">
         <v>203.609</v>
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6910650730133057</v>
+        <v>0.6812689304351807</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>949.421</v>
       </c>
     </row>
     <row r="24">
@@ -826,7 +826,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.546645879745483</v>
+        <v>1.463188171386719</v>
       </c>
       <c r="D24" t="n">
         <v>253.78</v>
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.666436910629272</v>
+        <v>1.471333265304565</v>
       </c>
       <c r="D25" t="n">
-        <v>1146.968</v>
+        <v>1007.304</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8044228553771973</v>
+        <v>0.8465757369995117</v>
       </c>
       <c r="D2" t="n">
-        <v>118.128</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7674190998077393</v>
+        <v>0.8677620887756348</v>
       </c>
       <c r="D3" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -931,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.032469987869263</v>
+        <v>1.043550968170166</v>
       </c>
       <c r="D4" t="n">
-        <v>117.464</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.000346899032593</v>
+        <v>1.089290857315063</v>
       </c>
       <c r="D5" t="n">
-        <v>117.464</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7104892730712891</v>
+        <v>0.7449789047241211</v>
       </c>
       <c r="D6" t="n">
-        <v>114.676</v>
+        <v>116.173</v>
       </c>
     </row>
     <row r="7">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6995699405670166</v>
+        <v>0.7315378189086914</v>
       </c>
       <c r="D7" t="n">
         <v>114.676</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6746950149536133</v>
+        <v>0.6556539535522461</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6552178859710693</v>
+        <v>0.6614961624145508</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7066950798034668</v>
+        <v>0.8888556957244873</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>213.564</v>
       </c>
     </row>
     <row r="11">
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6881983280181885</v>
+        <v>0.6915757656097412</v>
       </c>
       <c r="D11" t="n">
         <v>242.776</v>
@@ -1059,10 +1059,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.443694829940796</v>
+        <v>1.373157739639282</v>
       </c>
       <c r="D12" t="n">
-        <v>248.048</v>
+        <v>247.524</v>
       </c>
     </row>
     <row r="13">
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.399021863937378</v>
+        <v>1.5875403881073</v>
       </c>
       <c r="D13" t="n">
         <v>300.4</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.865847110748291</v>
+        <v>0.8520431518554688</v>
       </c>
       <c r="D14" t="n">
-        <v>116.411</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7886807918548584</v>
+        <v>0.8756389617919922</v>
       </c>
       <c r="D15" t="n">
         <v>118.326</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0678551197052</v>
+        <v>1.100036144256592</v>
       </c>
       <c r="D16" t="n">
         <v>173.568</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.02585506439209</v>
+        <v>1.077469110488892</v>
       </c>
       <c r="D17" t="n">
         <v>117.482</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6912729740142822</v>
+        <v>0.6756319999694824</v>
       </c>
       <c r="D18" t="n">
-        <v>114.456</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.703204870223999</v>
+        <v>0.7050468921661377</v>
       </c>
       <c r="D19" t="n">
         <v>114.874</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7359170913696289</v>
+        <v>0.7098188400268555</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6439888477325439</v>
+        <v>0.651357889175415</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6906449794769287</v>
+        <v>0.7006549835205078</v>
       </c>
       <c r="D22" t="n">
-        <v>203.609</v>
+        <v>205.106</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7751288414001465</v>
+        <v>0.6844959259033203</v>
       </c>
       <c r="D23" t="n">
-        <v>951.336</v>
+        <v>949.8390000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.233895063400269</v>
+        <v>1.447031021118164</v>
       </c>
       <c r="D24" t="n">
-        <v>197.694</v>
+        <v>253.78</v>
       </c>
     </row>
     <row r="25">
@@ -1267,7 +1267,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.523315906524658</v>
+        <v>1.416200160980225</v>
       </c>
       <c r="D25" t="n">
         <v>1007.304</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8508527278900146</v>
+        <v>0.8696072101593018</v>
       </c>
       <c r="D2" t="n">
         <v>118.128</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7983200550079346</v>
+        <v>0.8693268299102783</v>
       </c>
       <c r="D3" t="n">
         <v>118.128</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.030289888381958</v>
+        <v>1.088255405426025</v>
       </c>
       <c r="D4" t="n">
-        <v>117.046</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.011260986328125</v>
+        <v>1.117969989776611</v>
       </c>
       <c r="D5" t="n">
-        <v>117.464</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7468574047088623</v>
+        <v>0.7680947780609131</v>
       </c>
       <c r="D6" t="n">
-        <v>114.676</v>
+        <v>116.173</v>
       </c>
     </row>
     <row r="7">
@@ -1404,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7132160663604736</v>
+        <v>0.7023160457611084</v>
       </c>
       <c r="D7" t="n">
-        <v>114.676</v>
+        <v>116.173</v>
       </c>
     </row>
     <row r="8">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6596341133117676</v>
+        <v>0.6732051372528076</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6642582416534424</v>
+        <v>0.6551518440246582</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7004292011260986</v>
+        <v>0.7319238185882568</v>
       </c>
       <c r="D10" t="n">
-        <v>202.457</v>
+        <v>202.875</v>
       </c>
     </row>
     <row r="11">
@@ -1468,7 +1468,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7034640312194824</v>
+        <v>0.6917541027069092</v>
       </c>
       <c r="D11" t="n">
         <v>242.776</v>
@@ -1484,10 +1484,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.440102100372314</v>
+        <v>1.384417057037354</v>
       </c>
       <c r="D12" t="n">
-        <v>247.524</v>
+        <v>248.048</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.562477111816406</v>
+        <v>1.299524784088135</v>
       </c>
       <c r="D13" t="n">
-        <v>299.982</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="14">
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7954139709472656</v>
+        <v>0.8629181385040283</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8279829025268555</v>
+        <v>0.8563690185546875</v>
       </c>
       <c r="D15" t="n">
-        <v>116.411</v>
+        <v>118.432</v>
       </c>
     </row>
     <row r="16">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.680498838424683</v>
+        <v>1.092815160751343</v>
       </c>
       <c r="D16" t="n">
-        <v>185.545</v>
+        <v>173.15</v>
       </c>
     </row>
     <row r="17">
@@ -1564,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.031141996383667</v>
+        <v>1.204410791397095</v>
       </c>
       <c r="D17" t="n">
-        <v>117.482</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -1580,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6737196445465088</v>
+        <v>0.7055773735046387</v>
       </c>
       <c r="D18" t="n">
-        <v>114.874</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="19">
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7373299598693848</v>
+        <v>0.6987881660461426</v>
       </c>
       <c r="D19" t="n">
-        <v>114.456</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7442560195922852</v>
+        <v>0.6572458744049072</v>
       </c>
       <c r="D20" t="n">
         <v>113.612</v>
@@ -1628,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6585090160369873</v>
+        <v>0.6865122318267822</v>
       </c>
       <c r="D21" t="n">
-        <v>113.612</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6648237705230713</v>
+        <v>0.7205369472503662</v>
       </c>
       <c r="D22" t="n">
-        <v>203.609</v>
+        <v>204.688</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6687989234924316</v>
+        <v>0.6862080097198486</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>949.421</v>
       </c>
     </row>
     <row r="24">
@@ -1676,7 +1676,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.428006172180176</v>
+        <v>1.379212856292725</v>
       </c>
       <c r="D24" t="n">
         <v>253.362</v>
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.515333890914917</v>
+        <v>1.628951787948608</v>
       </c>
       <c r="D25" t="n">
-        <v>1007.304</v>
+        <v>1009.469</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7933218479156494</v>
+        <v>0.8861730098724365</v>
       </c>
       <c r="D2" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7689578533172607</v>
+        <v>0.8359169960021973</v>
       </c>
       <c r="D3" t="n">
-        <v>116.213</v>
+        <v>35.025</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.351898908615112</v>
+        <v>1.090072154998779</v>
       </c>
       <c r="D4" t="n">
-        <v>173.132</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.731427907943726</v>
+        <v>1.085561037063599</v>
       </c>
       <c r="D5" t="n">
-        <v>175.715</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7012250423431396</v>
+        <v>0.6999030113220215</v>
       </c>
       <c r="D6" t="n">
-        <v>114.258</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7917072772979736</v>
+        <v>0.7228682041168213</v>
       </c>
       <c r="D7" t="n">
-        <v>114.676</v>
+        <v>114.258</v>
       </c>
     </row>
     <row r="8">
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6784040927886963</v>
+        <v>0.6560940742492676</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6772971153259277</v>
+        <v>0.6467702388763428</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -1877,7 +1877,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7654268741607666</v>
+        <v>0.7078158855438232</v>
       </c>
       <c r="D10" t="n">
         <v>204.372</v>
@@ -1893,7 +1893,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6862249374389648</v>
+        <v>0.6735107898712158</v>
       </c>
       <c r="D11" t="n">
         <v>242.776</v>
@@ -1909,10 +1909,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.444300651550293</v>
+        <v>2.519315958023071</v>
       </c>
       <c r="D12" t="n">
-        <v>247.942</v>
+        <v>247.524</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.453727960586548</v>
+        <v>1.626086711883545</v>
       </c>
       <c r="D13" t="n">
-        <v>300.4</v>
+        <v>299.982</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7758002281188965</v>
+        <v>0.9559552669525146</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8133649826049805</v>
+        <v>0.8822798728942871</v>
       </c>
       <c r="D15" t="n">
         <v>116.829</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9975852966308594</v>
+        <v>1.050972938537598</v>
       </c>
       <c r="D16" t="n">
         <v>117.482</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.014145135879517</v>
+        <v>1.061599969863892</v>
       </c>
       <c r="D17" t="n">
         <v>117.482</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7070519924163818</v>
+        <v>0.7177300453186035</v>
       </c>
       <c r="D18" t="n">
         <v>114.874</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7166869640350342</v>
+        <v>0.736583948135376</v>
       </c>
       <c r="D19" t="n">
         <v>114.874</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6686148643493652</v>
+        <v>0.6567349433898926</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6582169532775879</v>
+        <v>0.669863224029541</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -2069,7 +2069,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7117760181427002</v>
+        <v>0.6905961036682129</v>
       </c>
       <c r="D22" t="n">
         <v>203.609</v>
@@ -2085,7 +2085,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7155561447143555</v>
+        <v>0.8352968692779541</v>
       </c>
       <c r="D23" t="n">
         <v>949.8390000000001</v>
@@ -2101,7 +2101,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.362202167510986</v>
+        <v>1.329742670059204</v>
       </c>
       <c r="D24" t="n">
         <v>253.78</v>
@@ -2117,7 +2117,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.45989990234375</v>
+        <v>1.570801019668579</v>
       </c>
       <c r="D25" t="n">
         <v>1007.304</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.780134916305542</v>
+        <v>0.8823909759521484</v>
       </c>
       <c r="D2" t="n">
         <v>116.631</v>
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7786087989807129</v>
+        <v>0.8919541835784912</v>
       </c>
       <c r="D3" t="n">
-        <v>94.693</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.992171049118042</v>
+        <v>1.168973684310913</v>
       </c>
       <c r="D4" t="n">
-        <v>117.464</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.033900022506714</v>
+        <v>1.053082942962646</v>
       </c>
       <c r="D5" t="n">
-        <v>173.55</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="6">
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6955502033233643</v>
+        <v>0.6912870407104492</v>
       </c>
       <c r="D6" t="n">
         <v>114.676</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.718073844909668</v>
+        <v>0.7071399688720703</v>
       </c>
       <c r="D7" t="n">
-        <v>114.258</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -2270,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6674091815948486</v>
+        <v>0.6381261348724365</v>
       </c>
       <c r="D8" t="n">
-        <v>115.509</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6814529895782471</v>
+        <v>0.6770420074462891</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -2302,7 +2302,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6902027130126953</v>
+        <v>0.6856839656829834</v>
       </c>
       <c r="D10" t="n">
         <v>202.875</v>
@@ -2318,7 +2318,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7614138126373291</v>
+        <v>0.663938045501709</v>
       </c>
       <c r="D11" t="n">
         <v>242.776</v>
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.482404947280884</v>
+        <v>1.323941707611084</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.471441984176636</v>
+        <v>1.368108749389648</v>
       </c>
       <c r="D13" t="n">
         <v>299.982</v>
@@ -2363,13 +2363,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7807948589324951</v>
+        <v>0.8586380481719971</v>
       </c>
       <c r="D14" t="n">
-        <v>116.411</v>
+        <v>116.829</v>
       </c>
     </row>
     <row r="15">
@@ -2382,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.80867600440979</v>
+        <v>0.9624021053314209</v>
       </c>
       <c r="D15" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9827849864959717</v>
+        <v>1.101424694061279</v>
       </c>
       <c r="D16" t="n">
-        <v>117.482</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="17">
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.042935132980347</v>
+        <v>1.092992067337036</v>
       </c>
       <c r="D17" t="n">
-        <v>173.568</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="18">
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7792050838470459</v>
+        <v>0.7140100002288818</v>
       </c>
       <c r="D18" t="n">
         <v>114.874</v>
@@ -2446,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7591829299926758</v>
+        <v>0.747622013092041</v>
       </c>
       <c r="D19" t="n">
-        <v>116.371</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="20">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6604149341583252</v>
+        <v>0.7625548839569092</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7089626789093018</v>
+        <v>0.6548428535461426</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -2494,7 +2494,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7395389080047607</v>
+        <v>0.6793239116668701</v>
       </c>
       <c r="D22" t="n">
         <v>203.609</v>
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8531181812286377</v>
+        <v>0.7015681266784668</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>950.918</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.260035991668701</v>
+        <v>1.374620914459229</v>
       </c>
       <c r="D24" t="n">
-        <v>197.276</v>
+        <v>253.78</v>
       </c>
     </row>
     <row r="25">
@@ -2542,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.918664932250977</v>
+        <v>1.600260019302368</v>
       </c>
       <c r="D25" t="n">
         <v>1009.469</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8098781108856201</v>
+        <v>0.8349089622497559</v>
       </c>
       <c r="D2" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7987961769104004</v>
+        <v>0.8862490653991699</v>
       </c>
       <c r="D3" t="n">
-        <v>118.128</v>
+        <v>116.631</v>
       </c>
     </row>
     <row r="4">
@@ -2631,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.12018895149231</v>
+        <v>1.068073987960815</v>
       </c>
       <c r="D4" t="n">
-        <v>173.55</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="5">
@@ -2647,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.053900957107544</v>
+        <v>0.7874429225921631</v>
       </c>
       <c r="D5" t="n">
-        <v>117.464</v>
+        <v>33.282</v>
       </c>
     </row>
     <row r="6">
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7216689586639404</v>
+        <v>0.730072021484375</v>
       </c>
       <c r="D6" t="n">
         <v>114.676</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8075206279754639</v>
+        <v>0.6914989948272705</v>
       </c>
       <c r="D7" t="n">
-        <v>116.173</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6660118103027344</v>
+        <v>0.6658611297607422</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -2711,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6730887889862061</v>
+        <v>0.664154052734375</v>
       </c>
       <c r="D9" t="n">
-        <v>114.012</v>
+        <v>115.509</v>
       </c>
     </row>
     <row r="10">
@@ -2727,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6877577304840088</v>
+        <v>0.6960577964782715</v>
       </c>
       <c r="D10" t="n">
         <v>202.875</v>
@@ -2743,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6836159229278564</v>
+        <v>0.7398428916931152</v>
       </c>
       <c r="D11" t="n">
         <v>242.776</v>
@@ -2759,7 +2759,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.555506944656372</v>
+        <v>1.469466209411621</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -2775,10 +2775,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.544810056686401</v>
+        <v>1.487395763397217</v>
       </c>
       <c r="D13" t="n">
-        <v>300.4</v>
+        <v>299.982</v>
       </c>
     </row>
     <row r="14">
@@ -2791,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8152933120727539</v>
+        <v>0.8470911979675293</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8051280975341797</v>
+        <v>0.8543438911437988</v>
       </c>
       <c r="D15" t="n">
         <v>118.326</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.006964921951294</v>
+        <v>1.087119102478027</v>
       </c>
       <c r="D16" t="n">
         <v>117.482</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.019043207168579</v>
+        <v>1.163490772247314</v>
       </c>
       <c r="D17" t="n">
         <v>173.568</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7023999691009521</v>
+        <v>0.7130608558654785</v>
       </c>
       <c r="D18" t="n">
         <v>114.874</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7969529628753662</v>
+        <v>0.6939728260040283</v>
       </c>
       <c r="D19" t="n">
         <v>114.874</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6615791320800781</v>
+        <v>0.6563441753387451</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6666269302368164</v>
+        <v>0.6743729114532471</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -2919,7 +2919,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6987540721893311</v>
+        <v>0.7192256450653076</v>
       </c>
       <c r="D22" t="n">
         <v>203.609</v>
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7831108570098877</v>
+        <v>0.6905479431152344</v>
       </c>
       <c r="D23" t="n">
-        <v>1087.338</v>
+        <v>949.8390000000001</v>
       </c>
     </row>
     <row r="24">
@@ -2951,7 +2951,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.476402997970581</v>
+        <v>1.457313776016235</v>
       </c>
       <c r="D24" t="n">
         <v>253.78</v>
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.59393572807312</v>
+        <v>1.457541704177856</v>
       </c>
       <c r="D25" t="n">
-        <v>1009.469</v>
+        <v>1007.304</v>
       </c>
     </row>
   </sheetData>
@@ -3021,13 +3021,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7879250049591064</v>
+        <v>0.8464679718017578</v>
       </c>
       <c r="D2" t="n">
-        <v>116.631</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="3">
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7832119464874268</v>
+        <v>0.8596360683441162</v>
       </c>
       <c r="D3" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.092039823532104</v>
+        <v>1.075708150863647</v>
       </c>
       <c r="D4" t="n">
-        <v>116.993</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="5">
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.009498834609985</v>
+        <v>1.047430038452148</v>
       </c>
       <c r="D5" t="n">
-        <v>117.046</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="6">
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7025113105773926</v>
+        <v>0.6666641235351562</v>
       </c>
       <c r="D6" t="n">
         <v>114.676</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7189619541168213</v>
+        <v>0.7848436832427979</v>
       </c>
       <c r="D7" t="n">
         <v>116.173</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7780129909515381</v>
+        <v>0.645604133605957</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -3136,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7621259689331055</v>
+        <v>0.657634973526001</v>
       </c>
       <c r="D9" t="n">
-        <v>115.509</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="10">
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7233819961547852</v>
+        <v>0.683661937713623</v>
       </c>
       <c r="D10" t="n">
-        <v>204.372</v>
+        <v>202.875</v>
       </c>
     </row>
     <row r="11">
@@ -3168,7 +3168,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6851661205291748</v>
+        <v>0.7024679183959961</v>
       </c>
       <c r="D11" t="n">
         <v>242.776</v>
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.508159160614014</v>
+        <v>1.364266633987427</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.463980913162231</v>
+        <v>1.580462694168091</v>
       </c>
       <c r="D13" t="n">
         <v>300.4</v>
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7950341701507568</v>
+        <v>0.9207842350006104</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9152178764343262</v>
+        <v>0.8694441318511963</v>
       </c>
       <c r="D15" t="n">
         <v>118.326</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.021614074707031</v>
+        <v>1.053497791290283</v>
       </c>
       <c r="D16" t="n">
         <v>117.482</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.007138013839722</v>
+        <v>1.092421770095825</v>
       </c>
       <c r="D17" t="n">
         <v>117.482</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7053778171539307</v>
+        <v>0.6857719421386719</v>
       </c>
       <c r="D18" t="n">
         <v>114.874</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6756660938262939</v>
+        <v>0.6976199150085449</v>
       </c>
       <c r="D19" t="n">
         <v>114.874</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7121412754058838</v>
+        <v>0.6611740589141846</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6513888835906982</v>
+        <v>0.6625699996948242</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8734579086303711</v>
+        <v>0.7727439403533936</v>
       </c>
       <c r="D22" t="n">
-        <v>205.106</v>
+        <v>203.609</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7942631244659424</v>
+        <v>0.6773457527160645</v>
       </c>
       <c r="D23" t="n">
-        <v>951.336</v>
+        <v>949.8390000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3376,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.437207937240601</v>
+        <v>1.267915010452271</v>
       </c>
       <c r="D24" t="n">
         <v>197.694</v>
@@ -3392,7 +3392,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.550293922424316</v>
+        <v>1.472305059432983</v>
       </c>
       <c r="D25" t="n">
         <v>1007.304</v>
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7940828800201416</v>
+        <v>0.8552041053771973</v>
       </c>
       <c r="D2" t="n">
         <v>118.128</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.784454345703125</v>
+        <v>0.8796830177307129</v>
       </c>
       <c r="D3" t="n">
         <v>116.631</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.035921096801758</v>
+        <v>1.171164274215698</v>
       </c>
       <c r="D4" t="n">
         <v>173.55</v>
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999749660491943</v>
+        <v>1.071913003921509</v>
       </c>
       <c r="D5" t="n">
-        <v>94.029</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -3513,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6896770000457764</v>
+        <v>0.6904587745666504</v>
       </c>
       <c r="D6" t="n">
-        <v>114.258</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -3529,10 +3529,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7858150005340576</v>
+        <v>0.6788990497589111</v>
       </c>
       <c r="D7" t="n">
-        <v>116.173</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.668194055557251</v>
+        <v>0.6587259769439697</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.656198263168335</v>
+        <v>0.6577048301696777</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -3577,7 +3577,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6966710090637207</v>
+        <v>0.6886429786682129</v>
       </c>
       <c r="D10" t="n">
         <v>202.875</v>
@@ -3593,7 +3593,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6938290596008301</v>
+        <v>0.7018179893493652</v>
       </c>
       <c r="D11" t="n">
         <v>242.776</v>
@@ -3609,10 +3609,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.278417825698853</v>
+        <v>1.401772975921631</v>
       </c>
       <c r="D12" t="n">
-        <v>191.856</v>
+        <v>247.942</v>
       </c>
     </row>
     <row r="13">
@@ -3625,10 +3625,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.369086027145386</v>
+        <v>1.407317876815796</v>
       </c>
       <c r="D13" t="n">
-        <v>299.982</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="14">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8006117343902588</v>
+        <v>0.8681900501251221</v>
       </c>
       <c r="D14" t="n">
         <v>118.326</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9471590518951416</v>
+        <v>0.8552660942077637</v>
       </c>
       <c r="D15" t="n">
         <v>118.326</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.026798009872437</v>
+        <v>1.057040929794312</v>
       </c>
       <c r="D16" t="n">
         <v>173.568</v>
@@ -3689,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9916238784790039</v>
+        <v>1.085474967956543</v>
       </c>
       <c r="D17" t="n">
-        <v>117.482</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6786849498748779</v>
+        <v>0.7100200653076172</v>
       </c>
       <c r="D18" t="n">
-        <v>114.874</v>
+        <v>116.371</v>
       </c>
     </row>
     <row r="19">
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4368634223937988</v>
+        <v>0.7010712623596191</v>
       </c>
       <c r="D19" t="n">
-        <v>32.189</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6457159519195557</v>
+        <v>0.7753660678863525</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -3753,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6759850978851318</v>
+        <v>0.651947021484375</v>
       </c>
       <c r="D21" t="n">
-        <v>114.03</v>
+        <v>113.612</v>
       </c>
     </row>
     <row r="22">
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.710385799407959</v>
+        <v>0.6693320274353027</v>
       </c>
       <c r="D22" t="n">
-        <v>205.106</v>
+        <v>203.609</v>
       </c>
     </row>
     <row r="23">
@@ -3785,7 +3785,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7871370315551758</v>
+        <v>0.6818821430206299</v>
       </c>
       <c r="D23" t="n">
         <v>949.8390000000001</v>
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.272282123565674</v>
+        <v>1.384235858917236</v>
       </c>
       <c r="D24" t="n">
-        <v>265.757</v>
+        <v>253.78</v>
       </c>
     </row>
     <row r="25">
@@ -3817,7 +3817,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.499924898147583</v>
+        <v>1.571110963821411</v>
       </c>
       <c r="D25" t="n">
         <v>1007.304</v>
@@ -3874,10 +3874,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8133859634399414</v>
+        <v>0.9604489803314209</v>
       </c>
       <c r="D2" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7737760543823242</v>
+        <v>0.8721551895141602</v>
       </c>
       <c r="D3" t="n">
         <v>118.128</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9995379447937012</v>
+        <v>1.069916963577271</v>
       </c>
       <c r="D4" t="n">
         <v>117.464</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9982130527496338</v>
+        <v>1.066176891326904</v>
       </c>
       <c r="D5" t="n">
         <v>117.464</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7067461013793945</v>
+        <v>0.7118017673492432</v>
       </c>
       <c r="D6" t="n">
         <v>114.676</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.897075891494751</v>
+        <v>0.6799650192260742</v>
       </c>
       <c r="D7" t="n">
         <v>114.676</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7534561157226562</v>
+        <v>0.6543686389923096</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6518120765686035</v>
+        <v>0.6536190509796143</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7051451206207275</v>
+        <v>0.6906890869140625</v>
       </c>
       <c r="D10" t="n">
-        <v>202.457</v>
+        <v>202.875</v>
       </c>
     </row>
     <row r="11">
@@ -4018,7 +4018,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7513372898101807</v>
+        <v>0.7705049514770508</v>
       </c>
       <c r="D11" t="n">
         <v>242.776</v>
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.417483568191528</v>
+        <v>1.35539722442627</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.383177995681763</v>
+        <v>1.381756067276001</v>
       </c>
       <c r="D13" t="n">
         <v>300.4</v>
@@ -4066,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7811200618743896</v>
+        <v>0.858551025390625</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7955129146575928</v>
+        <v>0.8421239852905273</v>
       </c>
       <c r="D15" t="n">
         <v>118.326</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9969930648803711</v>
+        <v>0.7856690883636475</v>
       </c>
       <c r="D16" t="n">
-        <v>117.482</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="17">
@@ -4114,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.02949595451355</v>
+        <v>1.280257940292358</v>
       </c>
       <c r="D17" t="n">
-        <v>117.064</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -4130,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6988139152526855</v>
+        <v>0.6932568550109863</v>
       </c>
       <c r="D18" t="n">
-        <v>116.371</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="19">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7945852279663086</v>
+        <v>0.7106108665466309</v>
       </c>
       <c r="D19" t="n">
-        <v>116.371</v>
+        <v>115.953</v>
       </c>
     </row>
     <row r="20">
@@ -4162,10 +4162,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7521252632141113</v>
+        <v>0.6833930015563965</v>
       </c>
       <c r="D20" t="n">
-        <v>115.527</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6658549308776855</v>
+        <v>0.6515460014343262</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.710270881652832</v>
+        <v>0.6969799995422363</v>
       </c>
       <c r="D22" t="n">
-        <v>203.609</v>
+        <v>203.191</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7869987487792969</v>
+        <v>0.698275089263916</v>
       </c>
       <c r="D23" t="n">
-        <v>1087.338</v>
+        <v>949.8390000000001</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.471246957778931</v>
+        <v>1.301620244979858</v>
       </c>
       <c r="D24" t="n">
-        <v>253.362</v>
+        <v>253.78</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.602935075759888</v>
+        <v>1.489990711212158</v>
       </c>
       <c r="D25" t="n">
-        <v>1007.304</v>
+        <v>1006.886</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7896740436553955</v>
+        <v>0.8575539588928223</v>
       </c>
       <c r="D2" t="n">
         <v>118.128</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8131546974182129</v>
+        <v>0.8518738746643066</v>
       </c>
       <c r="D3" t="n">
         <v>118.128</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.024718046188354</v>
+        <v>1.05468225479126</v>
       </c>
       <c r="D4" t="n">
         <v>173.55</v>
@@ -4347,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.018821001052856</v>
+        <v>0.7902441024780273</v>
       </c>
       <c r="D5" t="n">
-        <v>117.464</v>
+        <v>34.361</v>
       </c>
     </row>
     <row r="6">
@@ -4363,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6996610164642334</v>
+        <v>0.6931078433990479</v>
       </c>
       <c r="D6" t="n">
-        <v>114.258</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7438199520111084</v>
+        <v>0.7078628540039062</v>
       </c>
       <c r="D7" t="n">
-        <v>116.173</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6559460163116455</v>
+        <v>0.6517560482025146</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6616108417510986</v>
+        <v>0.6579859256744385</v>
       </c>
       <c r="D9" t="n">
-        <v>114.012</v>
+        <v>113.594</v>
       </c>
     </row>
     <row r="10">
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7103490829467773</v>
+        <v>0.7037210464477539</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>202.457</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.34453296661377</v>
+        <v>0.6844642162322998</v>
       </c>
       <c r="D11" t="n">
-        <v>300.359</v>
+        <v>242.776</v>
       </c>
     </row>
     <row r="12">
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.429139137268066</v>
+        <v>1.258412837982178</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -4475,10 +4475,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.43674898147583</v>
+        <v>1.257801294326782</v>
       </c>
       <c r="D13" t="n">
-        <v>300.4</v>
+        <v>217.715</v>
       </c>
     </row>
     <row r="14">
@@ -4491,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7772519588470459</v>
+        <v>0.8563449382781982</v>
       </c>
       <c r="D14" t="n">
-        <v>116.411</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="15">
@@ -4507,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8003709316253662</v>
+        <v>0.9850108623504639</v>
       </c>
       <c r="D15" t="n">
-        <v>116.829</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="16">
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.101258039474487</v>
+        <v>1.080899000167847</v>
       </c>
       <c r="D16" t="n">
-        <v>117.482</v>
+        <v>173.15</v>
       </c>
     </row>
     <row r="17">
@@ -4539,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.032655239105225</v>
+        <v>1.064870834350586</v>
       </c>
       <c r="D17" t="n">
-        <v>173.568</v>
+        <v>117.064</v>
       </c>
     </row>
     <row r="18">
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6965141296386719</v>
+        <v>0.6806669235229492</v>
       </c>
       <c r="D18" t="n">
         <v>114.456</v>
@@ -4571,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6900029182434082</v>
+        <v>0.6925129890441895</v>
       </c>
       <c r="D19" t="n">
-        <v>114.874</v>
+        <v>91.43899999999999</v>
       </c>
     </row>
     <row r="20">
@@ -4587,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6636087894439697</v>
+        <v>0.6949093341827393</v>
       </c>
       <c r="D20" t="n">
-        <v>114.03</v>
+        <v>113.612</v>
       </c>
     </row>
     <row r="21">
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6686930656433105</v>
+        <v>0.6724097728729248</v>
       </c>
       <c r="D21" t="n">
-        <v>114.03</v>
+        <v>113.612</v>
       </c>
     </row>
     <row r="22">
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6924469470977783</v>
+        <v>0.6902728080749512</v>
       </c>
       <c r="D22" t="n">
-        <v>203.609</v>
+        <v>205.106</v>
       </c>
     </row>
     <row r="23">
@@ -4635,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6843359470367432</v>
+        <v>0.7163710594177246</v>
       </c>
       <c r="D23" t="n">
         <v>949.8390000000001</v>
@@ -4651,7 +4651,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.374566316604614</v>
+        <v>1.514479160308838</v>
       </c>
       <c r="D24" t="n">
         <v>253.362</v>
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.595856904983521</v>
+        <v>1.426354885101318</v>
       </c>
       <c r="D25" t="n">
-        <v>1009.469</v>
+        <v>1007.304</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_firefox_test_results.xlsx
+++ b/client/test_results/filtered_firefox_test_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7881898880004883</v>
+        <v>0.8600490093231201</v>
       </c>
       <c r="D2" t="n">
         <v>116.213</v>
@@ -490,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7921440601348877</v>
+        <v>0.8473658561706543</v>
       </c>
       <c r="D3" t="n">
-        <v>116.213</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.006924867630005</v>
+        <v>1.0712730884552</v>
       </c>
       <c r="D4" t="n">
-        <v>117.046</v>
+        <v>173.132</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.001056909561157</v>
+        <v>1.080057859420776</v>
       </c>
       <c r="D5" t="n">
         <v>117.464</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7960281372070312</v>
+        <v>0.7093179225921631</v>
       </c>
       <c r="D6" t="n">
         <v>114.676</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7064902782440186</v>
+        <v>0.7077481746673584</v>
       </c>
       <c r="D7" t="n">
         <v>114.676</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.651745080947876</v>
+        <v>0.6875450611114502</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7556512355804443</v>
+        <v>0.6622979640960693</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6787211894989014</v>
+        <v>0.7151799201965332</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>175.528</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6855700016021729</v>
+        <v>0.7851831912994385</v>
       </c>
       <c r="D11" t="n">
-        <v>242.776</v>
+        <v>195.468</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +634,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.311807155609131</v>
+        <v>1.432557106018066</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.25604772567749</v>
+        <v>1.405416965484619</v>
       </c>
       <c r="D13" t="n">
         <v>300.4</v>
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7997989654541016</v>
+        <v>0.836259126663208</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7887899875640869</v>
+        <v>0.8834619522094727</v>
       </c>
       <c r="D15" t="n">
         <v>116.829</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9974970817565918</v>
+        <v>1.073727130889893</v>
       </c>
       <c r="D16" t="n">
-        <v>117.064</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9984731674194336</v>
+        <v>1.179275035858154</v>
       </c>
       <c r="D17" t="n">
-        <v>117.482</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7027478218078613</v>
+        <v>0.6956100463867188</v>
       </c>
       <c r="D18" t="n">
         <v>114.874</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6950628757476807</v>
+        <v>0.7126142978668213</v>
       </c>
       <c r="D19" t="n">
-        <v>114.874</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="20">
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6688759326934814</v>
+        <v>0.6810238361358643</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.673677921295166</v>
+        <v>0.7127177715301514</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7638928890228271</v>
+        <v>0.7044880390167236</v>
       </c>
       <c r="D22" t="n">
-        <v>341.108</v>
+        <v>170.827</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7085709571838379</v>
+        <v>0.7182888984680176</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>595.431</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.40732741355896</v>
+        <v>1.614310026168823</v>
       </c>
       <c r="D24" t="n">
-        <v>253.78</v>
+        <v>222.897</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.459218263626099</v>
+        <v>1.612246036529541</v>
       </c>
       <c r="D25" t="n">
-        <v>1007.304</v>
+        <v>652.478</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7897369861602783</v>
+        <v>0.8393018245697021</v>
       </c>
       <c r="D2" t="n">
-        <v>116.631</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8122608661651611</v>
+        <v>0.9707610607147217</v>
       </c>
       <c r="D3" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.021774768829346</v>
+        <v>1.066570043563843</v>
       </c>
       <c r="D4" t="n">
         <v>117.464</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.024476766586304</v>
+        <v>1.074976921081543</v>
       </c>
       <c r="D5" t="n">
-        <v>173.55</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="6">
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7770130634307861</v>
+        <v>0.7243080139160156</v>
       </c>
       <c r="D6" t="n">
-        <v>114.676</v>
+        <v>114.258</v>
       </c>
     </row>
     <row r="7">
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6952178478240967</v>
+        <v>0.8143298625946045</v>
       </c>
       <c r="D7" t="n">
-        <v>114.676</v>
+        <v>116.173</v>
       </c>
     </row>
     <row r="8">
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6592741012573242</v>
+        <v>0.6517400741577148</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6645340919494629</v>
+        <v>0.6465890407562256</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6932048797607422</v>
+        <v>0.6858477592468262</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.669450044631958</v>
+        <v>0.6948280334472656</v>
       </c>
       <c r="D11" t="n">
-        <v>242.776</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.418488025665283</v>
+        <v>1.477526903152466</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -1075,10 +1075,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.389003038406372</v>
+        <v>1.43224310874939</v>
       </c>
       <c r="D13" t="n">
-        <v>300.4</v>
+        <v>243.896</v>
       </c>
     </row>
     <row r="14">
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7863559722900391</v>
+        <v>0.8558080196380615</v>
       </c>
       <c r="D14" t="n">
         <v>116.829</v>
@@ -1104,13 +1104,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="C15" t="n">
-        <v>0.912510871887207</v>
+        <v>0.8738381862640381</v>
       </c>
       <c r="D15" t="n">
-        <v>118.326</v>
+        <v>116.829</v>
       </c>
     </row>
     <row r="16">
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.011651039123535</v>
+        <v>1.078341960906982</v>
       </c>
       <c r="D16" t="n">
         <v>117.482</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.117232084274292</v>
+        <v>1.076719045639038</v>
       </c>
       <c r="D17" t="n">
-        <v>117.064</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="18">
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6777229309082031</v>
+        <v>0.6652872562408447</v>
       </c>
       <c r="D18" t="n">
         <v>114.874</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7239389419555664</v>
+        <v>0.6944458484649658</v>
       </c>
       <c r="D19" t="n">
         <v>114.874</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6577410697937012</v>
+        <v>0.6768898963928223</v>
       </c>
       <c r="D20" t="n">
-        <v>114.03</v>
+        <v>115.527</v>
       </c>
     </row>
     <row r="21">
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6360888481140137</v>
+        <v>0.6618101596832275</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6862101554870605</v>
+        <v>0.6780719757080078</v>
       </c>
       <c r="D22" t="n">
-        <v>203.609</v>
+        <v>170.827</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7023108005523682</v>
+        <v>0.8094029426574707</v>
       </c>
       <c r="D23" t="n">
-        <v>951.336</v>
+        <v>596.928</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.352245092391968</v>
+        <v>1.389150857925415</v>
       </c>
       <c r="D24" t="n">
-        <v>253.78</v>
+        <v>222.897</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.486706972122192</v>
+        <v>1.604098081588745</v>
       </c>
       <c r="D25" t="n">
-        <v>983.869</v>
+        <v>797.7910000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7893691062927246</v>
+        <v>0.8451790809631348</v>
       </c>
       <c r="D2" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -1340,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7822592258453369</v>
+        <v>0.8459920883178711</v>
       </c>
       <c r="D3" t="n">
-        <v>116.631</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="4">
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.165800809860229</v>
+        <v>1.08148980140686</v>
       </c>
       <c r="D4" t="n">
         <v>173.55</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9802210330963135</v>
+        <v>1.102226734161377</v>
       </c>
       <c r="D5" t="n">
-        <v>117.464</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7037868499755859</v>
+        <v>0.7466330528259277</v>
       </c>
       <c r="D6" t="n">
         <v>114.676</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7374382019042969</v>
+        <v>0.7512199878692627</v>
       </c>
       <c r="D7" t="n">
         <v>114.676</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6557860374450684</v>
+        <v>0.6883053779602051</v>
       </c>
       <c r="D8" t="n">
-        <v>114.012</v>
+        <v>113.594</v>
       </c>
     </row>
     <row r="9">
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6456336975097656</v>
+        <v>0.6852140426635742</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6740820407867432</v>
+        <v>0.7242081165313721</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.688499927520752</v>
+        <v>0.719970703125</v>
       </c>
       <c r="D11" t="n">
-        <v>242.776</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -1484,10 +1484,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.306396245956421</v>
+        <v>1.43107008934021</v>
       </c>
       <c r="D12" t="n">
-        <v>191.856</v>
+        <v>247.942</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.38615608215332</v>
+        <v>1.470372915267944</v>
       </c>
       <c r="D13" t="n">
-        <v>300.4</v>
+        <v>299.982</v>
       </c>
     </row>
     <row r="14">
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.782097339630127</v>
+        <v>0.9387891292572021</v>
       </c>
       <c r="D14" t="n">
-        <v>118.326</v>
+        <v>174.412</v>
       </c>
     </row>
     <row r="15">
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8088371753692627</v>
+        <v>0.8505289554595947</v>
       </c>
       <c r="D15" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.003989934921265</v>
+        <v>1.074120283126831</v>
       </c>
       <c r="D16" t="n">
-        <v>115.985</v>
+        <v>117.064</v>
       </c>
     </row>
     <row r="17">
@@ -1564,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9953908920288086</v>
+        <v>1.064470052719116</v>
       </c>
       <c r="D17" t="n">
-        <v>117.064</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="18">
@@ -1580,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8092200756072998</v>
+        <v>0.7171089649200439</v>
       </c>
       <c r="D18" t="n">
-        <v>116.371</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9649770259857178</v>
+        <v>0.7176468372344971</v>
       </c>
       <c r="D19" t="n">
-        <v>116.371</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6918232440948486</v>
+        <v>0.6623497009277344</v>
       </c>
       <c r="D20" t="n">
-        <v>115.527</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="21">
@@ -1628,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6513099670410156</v>
+        <v>0.6718332767486572</v>
       </c>
       <c r="D21" t="n">
-        <v>114.03</v>
+        <v>113.612</v>
       </c>
     </row>
     <row r="22">
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6701769828796387</v>
+        <v>0.8716750144958496</v>
       </c>
       <c r="D22" t="n">
-        <v>203.609</v>
+        <v>171.245</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.712742805480957</v>
+        <v>0.6929969787597656</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>595.431</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.344002962112427</v>
+        <v>1.485865831375122</v>
       </c>
       <c r="D24" t="n">
-        <v>253.362</v>
+        <v>222.897</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.483656883239746</v>
+        <v>1.643761873245239</v>
       </c>
       <c r="D25" t="n">
-        <v>1007.304</v>
+        <v>797.7910000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7656347751617432</v>
+        <v>0.854736328125</v>
       </c>
       <c r="D2" t="n">
         <v>118.128</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7859179973602295</v>
+        <v>0.8536410331726074</v>
       </c>
       <c r="D3" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.007867813110352</v>
+        <v>1.089931011199951</v>
       </c>
       <c r="D4" t="n">
-        <v>117.464</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.017113924026489</v>
+        <v>1.168058156967163</v>
       </c>
       <c r="D5" t="n">
-        <v>117.464</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6896340847015381</v>
+        <v>0.691425085067749</v>
       </c>
       <c r="D6" t="n">
         <v>114.676</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6799211502075195</v>
+        <v>0.6771152019500732</v>
       </c>
       <c r="D7" t="n">
-        <v>114.676</v>
+        <v>114.258</v>
       </c>
     </row>
     <row r="8">
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6579020023345947</v>
+        <v>0.6505351066589355</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6869549751281738</v>
+        <v>0.6624641418457031</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6824698448181152</v>
+        <v>0.6847670078277588</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.680253267288208</v>
+        <v>0.6816670894622803</v>
       </c>
       <c r="D11" t="n">
-        <v>242.776</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -1909,7 +1909,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.390311002731323</v>
+        <v>1.562773942947388</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -1925,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.766281843185425</v>
+        <v>1.468832015991211</v>
       </c>
       <c r="D13" t="n">
         <v>300.4</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8100478649139404</v>
+        <v>0.8483908176422119</v>
       </c>
       <c r="D14" t="n">
         <v>118.326</v>
@@ -1957,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7975201606750488</v>
+        <v>0.8665440082550049</v>
       </c>
       <c r="D15" t="n">
-        <v>118.326</v>
+        <v>116.829</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.014993190765381</v>
+        <v>1.081714153289795</v>
       </c>
       <c r="D16" t="n">
-        <v>117.482</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.097724914550781</v>
+        <v>1.050166845321655</v>
       </c>
       <c r="D17" t="n">
-        <v>173.568</v>
+        <v>117.482</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6971762180328369</v>
+        <v>0.7160451412200928</v>
       </c>
       <c r="D18" t="n">
-        <v>114.456</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="19">
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7019417285919189</v>
+        <v>0.8807177543640137</v>
       </c>
       <c r="D19" t="n">
         <v>114.874</v>
@@ -2037,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6480441093444824</v>
+        <v>0.6433188915252686</v>
       </c>
       <c r="D20" t="n">
-        <v>114.03</v>
+        <v>113.612</v>
       </c>
     </row>
     <row r="21">
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6470248699188232</v>
+        <v>0.6851990222930908</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.690298318862915</v>
+        <v>0.6925101280212402</v>
       </c>
       <c r="D22" t="n">
-        <v>203.609</v>
+        <v>171.245</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6745390892028809</v>
+        <v>0.6929037570953369</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>595.431</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.353621006011963</v>
+        <v>1.414339780807495</v>
       </c>
       <c r="D24" t="n">
-        <v>253.78</v>
+        <v>222.897</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.601657867431641</v>
+        <v>1.604578971862793</v>
       </c>
       <c r="D25" t="n">
-        <v>1007.304</v>
+        <v>652.896</v>
       </c>
     </row>
   </sheetData>
@@ -2171,13 +2171,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7830121517181396</v>
+        <v>0.8536899089813232</v>
       </c>
       <c r="D2" t="n">
-        <v>116.213</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="3">
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7840578556060791</v>
+        <v>0.8490879535675049</v>
       </c>
       <c r="D3" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9935569763183594</v>
+        <v>1.094127893447876</v>
       </c>
       <c r="D4" t="n">
         <v>117.464</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.040839195251465</v>
+        <v>1.052668809890747</v>
       </c>
       <c r="D5" t="n">
-        <v>117.464</v>
+        <v>117.046</v>
       </c>
     </row>
     <row r="6">
@@ -2238,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6969149112701416</v>
+        <v>0.697667121887207</v>
       </c>
       <c r="D6" t="n">
-        <v>116.173</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="7">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7141537666320801</v>
+        <v>0.7175900936126709</v>
       </c>
       <c r="D7" t="n">
         <v>114.676</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6627256870269775</v>
+        <v>0.6633460521697998</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6768310070037842</v>
+        <v>0.6785609722137451</v>
       </c>
       <c r="D9" t="n">
-        <v>114.012</v>
+        <v>113.594</v>
       </c>
     </row>
     <row r="10">
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6947388648986816</v>
+        <v>0.7944400310516357</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6885571479797363</v>
+        <v>0.707287073135376</v>
       </c>
       <c r="D11" t="n">
-        <v>242.776</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -2334,10 +2334,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.38673210144043</v>
+        <v>1.484058141708374</v>
       </c>
       <c r="D12" t="n">
-        <v>247.942</v>
+        <v>247.524</v>
       </c>
     </row>
     <row r="13">
@@ -2350,10 +2350,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.438320875167847</v>
+        <v>1.514736890792847</v>
       </c>
       <c r="D13" t="n">
-        <v>299.982</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="14">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7773916721343994</v>
+        <v>0.8518021106719971</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="15">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9208478927612305</v>
+        <v>0.8437199592590332</v>
       </c>
       <c r="D15" t="n">
         <v>118.326</v>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9977548122406006</v>
+        <v>1.193243026733398</v>
       </c>
       <c r="D16" t="n">
-        <v>117.064</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="17">
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.009417057037354</v>
+        <v>1.070500135421753</v>
       </c>
       <c r="D17" t="n">
-        <v>117.482</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6786429882049561</v>
+        <v>0.7894179821014404</v>
       </c>
       <c r="D18" t="n">
-        <v>114.874</v>
+        <v>116.371</v>
       </c>
     </row>
     <row r="19">
@@ -2446,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7317819595336914</v>
+        <v>0.7207138538360596</v>
       </c>
       <c r="D19" t="n">
-        <v>114.456</v>
+        <v>114.874</v>
       </c>
     </row>
     <row r="20">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6578428745269775</v>
+        <v>0.6559171676635742</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.665647029876709</v>
+        <v>0.684805154800415</v>
       </c>
       <c r="D21" t="n">
-        <v>113.612</v>
+        <v>114.03</v>
       </c>
     </row>
     <row r="22">
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7207911014556885</v>
+        <v>0.7492096424102783</v>
       </c>
       <c r="D22" t="n">
-        <v>204.688</v>
+        <v>171.245</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6880049705505371</v>
+        <v>0.673069953918457</v>
       </c>
       <c r="D23" t="n">
-        <v>949.421</v>
+        <v>595.013</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.300132036209106</v>
+        <v>1.451734066009521</v>
       </c>
       <c r="D24" t="n">
-        <v>253.362</v>
+        <v>222.897</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.508035182952881</v>
+        <v>1.677276849746704</v>
       </c>
       <c r="D25" t="n">
-        <v>1007.304</v>
+        <v>800.374</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7928848266601562</v>
+        <v>0.8191978931427002</v>
       </c>
       <c r="D2" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7785618305206299</v>
+        <v>0.847794771194458</v>
       </c>
       <c r="D3" t="n">
-        <v>117.71</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="4">
@@ -2631,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998363733291626</v>
+        <v>1.140527963638306</v>
       </c>
       <c r="D4" t="n">
-        <v>117.046</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.026566028594971</v>
+        <v>1.06522798538208</v>
       </c>
       <c r="D5" t="n">
         <v>173.55</v>
@@ -2663,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7024319171905518</v>
+        <v>0.8101427555084229</v>
       </c>
       <c r="D6" t="n">
-        <v>114.676</v>
+        <v>115.755</v>
       </c>
     </row>
     <row r="7">
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6932857036590576</v>
+        <v>0.7696921825408936</v>
       </c>
       <c r="D7" t="n">
-        <v>116.173</v>
+        <v>114.676</v>
       </c>
     </row>
     <row r="8">
@@ -2695,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6755440235137939</v>
+        <v>0.6503040790557861</v>
       </c>
       <c r="D8" t="n">
-        <v>115.509</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6537117958068848</v>
+        <v>0.698458194732666</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6796410083770752</v>
+        <v>0.7457690238952637</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>175.528</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7021501064300537</v>
+        <v>0.7439730167388916</v>
       </c>
       <c r="D11" t="n">
-        <v>242.776</v>
+        <v>193.971</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.409579992294312</v>
+        <v>1.60343599319458</v>
       </c>
       <c r="D12" t="n">
-        <v>247.942</v>
+        <v>224.507</v>
       </c>
     </row>
     <row r="13">
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.39883017539978</v>
+        <v>1.467849016189575</v>
       </c>
       <c r="D13" t="n">
         <v>300.4</v>
@@ -2791,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7943391799926758</v>
+        <v>0.8839108943939209</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>116.411</v>
       </c>
     </row>
     <row r="15">
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8341710567474365</v>
+        <v>0.8687541484832764</v>
       </c>
       <c r="D15" t="n">
-        <v>118.326</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="16">
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996459484100342</v>
+        <v>1.096315145492554</v>
       </c>
       <c r="D16" t="n">
         <v>117.482</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.018270015716553</v>
+        <v>1.112499952316284</v>
       </c>
       <c r="D17" t="n">
         <v>173.568</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6652040481567383</v>
+        <v>0.7139101028442383</v>
       </c>
       <c r="D18" t="n">
         <v>114.874</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6881470680236816</v>
+        <v>0.7171094417572021</v>
       </c>
       <c r="D19" t="n">
         <v>114.874</v>
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6448278427124023</v>
+        <v>0.7891299724578857</v>
       </c>
       <c r="D20" t="n">
-        <v>114.03</v>
+        <v>113.612</v>
       </c>
     </row>
     <row r="21">
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6524178981781006</v>
+        <v>0.6453409194946289</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7820029258728027</v>
+        <v>0.7120320796966553</v>
       </c>
       <c r="D22" t="n">
-        <v>205.106</v>
+        <v>170.827</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6932542324066162</v>
+        <v>0.6708369255065918</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>595.013</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.409456729888916</v>
+        <v>1.425428867340088</v>
       </c>
       <c r="D24" t="n">
-        <v>253.78</v>
+        <v>222.897</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.46495795249939</v>
+        <v>1.532337188720703</v>
       </c>
       <c r="D25" t="n">
-        <v>1007.304</v>
+        <v>797.7910000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8246200084686279</v>
+        <v>0.8342602252960205</v>
       </c>
       <c r="D2" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9060041904449463</v>
+        <v>0.8469407558441162</v>
       </c>
       <c r="D3" t="n">
         <v>118.128</v>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.008817911148071</v>
+        <v>1.161674976348877</v>
       </c>
       <c r="D4" t="n">
-        <v>117.464</v>
+        <v>173.132</v>
       </c>
     </row>
     <row r="5">
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.001720905303955</v>
+        <v>1.06573486328125</v>
       </c>
       <c r="D5" t="n">
         <v>117.464</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6887900829315186</v>
+        <v>0.7088220119476318</v>
       </c>
       <c r="D6" t="n">
         <v>114.676</v>
@@ -3104,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7141706943511963</v>
+        <v>0.6780569553375244</v>
       </c>
       <c r="D7" t="n">
-        <v>114.676</v>
+        <v>114.258</v>
       </c>
     </row>
     <row r="8">
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6790251731872559</v>
+        <v>0.7125339508056641</v>
       </c>
       <c r="D8" t="n">
         <v>114.012</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6350460052490234</v>
+        <v>0.68212890625</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6975419521331787</v>
+        <v>0.8034539222717285</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>173.613</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6762850284576416</v>
+        <v>0.6945252418518066</v>
       </c>
       <c r="D11" t="n">
-        <v>242.776</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.398487091064453</v>
+        <v>1.448787927627563</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -3200,10 +3200,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.368733882904053</v>
+        <v>1.507209062576294</v>
       </c>
       <c r="D13" t="n">
-        <v>300.4</v>
+        <v>299.982</v>
       </c>
     </row>
     <row r="14">
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7910621166229248</v>
+        <v>0.9173479080200195</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="15">
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9060900211334229</v>
+        <v>0.8520820140838623</v>
       </c>
       <c r="D15" t="n">
         <v>118.326</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.006505012512207</v>
+        <v>1.076504945755005</v>
       </c>
       <c r="D16" t="n">
         <v>117.482</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.004321098327637</v>
+        <v>1.077328205108643</v>
       </c>
       <c r="D17" t="n">
         <v>117.482</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6778519153594971</v>
+        <v>0.7069230079650879</v>
       </c>
       <c r="D18" t="n">
-        <v>114.874</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="19">
@@ -3296,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7904558181762695</v>
+        <v>0.8178391456604004</v>
       </c>
       <c r="D19" t="n">
-        <v>114.874</v>
+        <v>116.371</v>
       </c>
     </row>
     <row r="20">
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6432950496673584</v>
+        <v>0.6660027503967285</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6726138591766357</v>
+        <v>0.6427028179168701</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7044479846954346</v>
+        <v>0.7016701698303223</v>
       </c>
       <c r="D22" t="n">
-        <v>203.609</v>
+        <v>170.827</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7463209629058838</v>
+        <v>0.7022898197174072</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>595.431</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.340541839599609</v>
+        <v>1.507076978683472</v>
       </c>
       <c r="D24" t="n">
-        <v>253.78</v>
+        <v>222.897</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.489037990570068</v>
+        <v>1.891117095947266</v>
       </c>
       <c r="D25" t="n">
-        <v>1007.304</v>
+        <v>810.604</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7838170528411865</v>
+        <v>0.8434841632843018</v>
       </c>
       <c r="D2" t="n">
         <v>118.128</v>
@@ -3465,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.776907205581665</v>
+        <v>0.8565752506256104</v>
       </c>
       <c r="D3" t="n">
-        <v>116.213</v>
+        <v>117.71</v>
       </c>
     </row>
     <row r="4">
@@ -3481,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9852001667022705</v>
+        <v>1.049206018447876</v>
       </c>
       <c r="D4" t="n">
-        <v>117.464</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.013127326965332</v>
+        <v>1.053747892379761</v>
       </c>
       <c r="D5" t="n">
-        <v>173.55</v>
+        <v>117.464</v>
       </c>
     </row>
     <row r="6">
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.68035888671875</v>
+        <v>0.7382187843322754</v>
       </c>
       <c r="D6" t="n">
         <v>114.676</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.696321964263916</v>
+        <v>0.7074041366577148</v>
       </c>
       <c r="D7" t="n">
         <v>114.676</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6570000648498535</v>
+        <v>0.6642012596130371</v>
       </c>
       <c r="D8" t="n">
-        <v>114.012</v>
+        <v>115.509</v>
       </c>
     </row>
     <row r="9">
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6505746841430664</v>
+        <v>0.762408971786499</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7946782112121582</v>
+        <v>0.7114999294281006</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6765918731689453</v>
+        <v>0.6748459339141846</v>
       </c>
       <c r="D11" t="n">
-        <v>242.776</v>
+        <v>195.886</v>
       </c>
     </row>
     <row r="12">
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.453374147415161</v>
+        <v>1.470770835876465</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -3625,10 +3625,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.41566801071167</v>
+        <v>1.434612989425659</v>
       </c>
       <c r="D13" t="n">
-        <v>299.982</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="14">
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7777750492095947</v>
+        <v>0.854762077331543</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -3657,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7752509117126465</v>
+        <v>0.9727859497070312</v>
       </c>
       <c r="D15" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="16">
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.00035285949707</v>
+        <v>1.069532871246338</v>
       </c>
       <c r="D16" t="n">
-        <v>117.482</v>
+        <v>173.15</v>
       </c>
     </row>
     <row r="17">
@@ -3689,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.003703117370605</v>
+        <v>1.194157123565674</v>
       </c>
       <c r="D17" t="n">
-        <v>117.482</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7983560562133789</v>
+        <v>0.5492641925811768</v>
       </c>
       <c r="D18" t="n">
-        <v>116.371</v>
+        <v>32.189</v>
       </c>
     </row>
     <row r="19">
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6834018230438232</v>
+        <v>0.7155492305755615</v>
       </c>
       <c r="D19" t="n">
         <v>114.874</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.649921178817749</v>
+        <v>0.6746149063110352</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6527779102325439</v>
+        <v>0.650223970413208</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7132501602172852</v>
+        <v>0.6853859424591064</v>
       </c>
       <c r="D22" t="n">
-        <v>203.609</v>
+        <v>171.245</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7006978988647461</v>
+        <v>0.6892218589782715</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>595.431</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.320962190628052</v>
+        <v>1.368674039840698</v>
       </c>
       <c r="D24" t="n">
-        <v>253.78</v>
+        <v>222.897</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.492970943450928</v>
+        <v>1.713495016098022</v>
       </c>
       <c r="D25" t="n">
-        <v>1006.886</v>
+        <v>655.061</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +3874,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7922530174255371</v>
+        <v>0.856572151184082</v>
       </c>
       <c r="D2" t="n">
-        <v>116.631</v>
+        <v>118.128</v>
       </c>
     </row>
     <row r="3">
@@ -3890,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7919700145721436</v>
+        <v>0.8515353202819824</v>
       </c>
       <c r="D3" t="n">
-        <v>116.631</v>
+        <v>116.213</v>
       </c>
     </row>
     <row r="4">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.017213821411133</v>
+        <v>1.063583850860596</v>
       </c>
       <c r="D4" t="n">
-        <v>173.55</v>
+        <v>117.046</v>
       </c>
     </row>
     <row r="5">
@@ -3922,10 +3922,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9800539016723633</v>
+        <v>1.141307830810547</v>
       </c>
       <c r="D5" t="n">
-        <v>117.046</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="6">
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7013847827911377</v>
+        <v>0.7022440433502197</v>
       </c>
       <c r="D6" t="n">
         <v>114.258</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7241809368133545</v>
+        <v>0.4555511474609375</v>
       </c>
       <c r="D7" t="n">
-        <v>114.676</v>
+        <v>31.573</v>
       </c>
     </row>
     <row r="8">
@@ -3970,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6586229801177979</v>
+        <v>0.6751947402954102</v>
       </c>
       <c r="D8" t="n">
-        <v>114.012</v>
+        <v>113.594</v>
       </c>
     </row>
     <row r="9">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6525859832763672</v>
+        <v>0.6942751407623291</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6755216121673584</v>
+        <v>0.6900942325592041</v>
       </c>
       <c r="D10" t="n">
-        <v>202.875</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7026569843292236</v>
+        <v>0.6807830333709717</v>
       </c>
       <c r="D11" t="n">
-        <v>242.776</v>
+        <v>194.389</v>
       </c>
     </row>
     <row r="12">
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.421146154403687</v>
+        <v>1.446432590484619</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.332730054855347</v>
+        <v>1.498801946640015</v>
       </c>
       <c r="D13" t="n">
         <v>300.4</v>
@@ -4066,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7977447509765625</v>
+        <v>0.8601441383361816</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -4082,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8224971294403076</v>
+        <v>0.8500030040740967</v>
       </c>
       <c r="D15" t="n">
-        <v>118.326</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="16">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.104737758636475</v>
+        <v>1.094815015792847</v>
       </c>
       <c r="D16" t="n">
         <v>173.568</v>
@@ -4114,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.016396045684814</v>
+        <v>1.080383062362671</v>
       </c>
       <c r="D17" t="n">
-        <v>173.568</v>
+        <v>117.064</v>
       </c>
     </row>
     <row r="18">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6940159797668457</v>
+        <v>0.6793341636657715</v>
       </c>
       <c r="D18" t="n">
         <v>114.874</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6813020706176758</v>
+        <v>0.7127771377563477</v>
       </c>
       <c r="D19" t="n">
-        <v>114.874</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="20">
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7111899852752686</v>
+        <v>0.7844316959381104</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6806058883666992</v>
+        <v>0.6598031520843506</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7584171295166016</v>
+        <v>0.7131328582763672</v>
       </c>
       <c r="D22" t="n">
-        <v>205.106</v>
+        <v>170.827</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6921930313110352</v>
+        <v>0.7181022167205811</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>596.928</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.393411874771118</v>
+        <v>1.403424978256226</v>
       </c>
       <c r="D24" t="n">
-        <v>197.694</v>
+        <v>222.479</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.44748592376709</v>
+        <v>1.563184022903442</v>
       </c>
       <c r="D25" t="n">
-        <v>1007.304</v>
+        <v>798.2089999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7854311466217041</v>
+        <v>0.9899687767028809</v>
       </c>
       <c r="D2" t="n">
-        <v>118.128</v>
+        <v>174.214</v>
       </c>
     </row>
     <row r="3">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8020777702331543</v>
+        <v>0.8410711288452148</v>
       </c>
       <c r="D3" t="n">
         <v>118.128</v>
@@ -4331,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.002607107162476</v>
+        <v>1.105467081069946</v>
       </c>
       <c r="D4" t="n">
-        <v>117.464</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="5">
@@ -4347,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9890091419219971</v>
+        <v>1.062928199768066</v>
       </c>
       <c r="D5" t="n">
-        <v>93.611</v>
+        <v>117.046</v>
       </c>
     </row>
     <row r="6">
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.695512056350708</v>
+        <v>0.7573111057281494</v>
       </c>
       <c r="D6" t="n">
         <v>114.676</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7070698738098145</v>
+        <v>0.6829769611358643</v>
       </c>
       <c r="D7" t="n">
         <v>114.676</v>
@@ -4395,10 +4395,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6437981128692627</v>
+        <v>0.6695458889007568</v>
       </c>
       <c r="D8" t="n">
-        <v>90.577</v>
+        <v>114.012</v>
       </c>
     </row>
     <row r="9">
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6665647029876709</v>
+        <v>0.7977607250213623</v>
       </c>
       <c r="D9" t="n">
         <v>114.012</v>
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7606918811798096</v>
+        <v>0.7705037593841553</v>
       </c>
       <c r="D10" t="n">
-        <v>204.372</v>
+        <v>174.031</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6668689250946045</v>
+        <v>0.6927309036254883</v>
       </c>
       <c r="D11" t="n">
-        <v>242.776</v>
+        <v>195.886</v>
       </c>
     </row>
     <row r="12">
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.416067838668823</v>
+        <v>1.463383913040161</v>
       </c>
       <c r="D12" t="n">
         <v>247.942</v>
@@ -4475,10 +4475,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.340385913848877</v>
+        <v>1.399341821670532</v>
       </c>
       <c r="D13" t="n">
-        <v>244.314</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="14">
@@ -4488,13 +4488,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.090909090909093</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7867271900177002</v>
+        <v>0.8731310367584229</v>
       </c>
       <c r="D14" t="n">
-        <v>116.829</v>
+        <v>118.326</v>
       </c>
     </row>
     <row r="15">
@@ -4507,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8043057918548584</v>
+        <v>0.8721549510955811</v>
       </c>
       <c r="D15" t="n">
-        <v>116.829</v>
+        <v>117.908</v>
       </c>
     </row>
     <row r="16">
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.007949113845825</v>
+        <v>1.083075046539307</v>
       </c>
       <c r="D16" t="n">
         <v>117.482</v>
@@ -4539,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.983814001083374</v>
+        <v>1.147020101547241</v>
       </c>
       <c r="D17" t="n">
-        <v>117.482</v>
+        <v>173.568</v>
       </c>
     </row>
     <row r="18">
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6822428703308105</v>
+        <v>0.7429261207580566</v>
       </c>
       <c r="D18" t="n">
         <v>114.456</v>
@@ -4571,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7193710803985596</v>
+        <v>0.6680660247802734</v>
       </c>
       <c r="D19" t="n">
-        <v>116.371</v>
+        <v>114.456</v>
       </c>
     </row>
     <row r="20">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6465709209442139</v>
+        <v>0.6856489181518555</v>
       </c>
       <c r="D20" t="n">
         <v>114.03</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.667078971862793</v>
+        <v>0.6729950904846191</v>
       </c>
       <c r="D21" t="n">
         <v>114.03</v>
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7373042106628418</v>
+        <v>0.6806631088256836</v>
       </c>
       <c r="D22" t="n">
-        <v>203.609</v>
+        <v>171.245</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6816070079803467</v>
+        <v>0.6938488483428955</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8390000000001</v>
+        <v>595.431</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.354374170303345</v>
+        <v>1.431820154190063</v>
       </c>
       <c r="D24" t="n">
-        <v>253.78</v>
+        <v>166.811</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.408021926879883</v>
+        <v>1.557488203048706</v>
       </c>
       <c r="D25" t="n">
-        <v>1007.304</v>
+        <v>652.478</v>
       </c>
     </row>
   </sheetData>
